--- a/payroll_gross.xlsx
+++ b/payroll_gross.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>DEPARTMENT</t>
   </si>
   <si>
+    <t>BOOKS</t>
+  </si>
+  <si>
     <t>Total_Gross</t>
   </si>
   <si>
@@ -52,9 +55,6 @@
     <t>LEGAL DEPARTMENT</t>
   </si>
   <si>
-    <t>Not Found</t>
-  </si>
-  <si>
     <t>OFFICE OF THE PRESIDENT</t>
   </si>
   <si>
@@ -68,6 +68,24 @@
   </si>
   <si>
     <t>TREASURY DEPARTMENT</t>
+  </si>
+  <si>
+    <t>GENERAL COMMON EXPENSE</t>
+  </si>
+  <si>
+    <t>ELISTON PLACE</t>
+  </si>
+  <si>
+    <t>WELLINGTON PLACE 6-12</t>
+  </si>
+  <si>
+    <t>WTR</t>
+  </si>
+  <si>
+    <t>QH2</t>
+  </si>
+  <si>
+    <t>MCC</t>
   </si>
 </sst>
 </file>
@@ -425,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,201 +462,365 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>99077.39000000001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4432.5</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>9357.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
         <v>150147.96</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6502.5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>13727.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>65863.82000000001</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>3870</v>
+        <v>59708.7</v>
       </c>
       <c r="D4">
-        <v>8170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>3217.5</v>
+      </c>
+      <c r="E4">
+        <v>6792.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>6155.12</v>
+      </c>
+      <c r="D6">
+        <v>652.5</v>
+      </c>
+      <c r="E6">
+        <v>1377.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
         <v>96803.73</v>
       </c>
-      <c r="C5">
+      <c r="D7">
         <v>3915</v>
       </c>
-      <c r="D5">
+      <c r="E7">
         <v>8265</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>113251.13</v>
-      </c>
-      <c r="C6">
-        <v>3690</v>
-      </c>
-      <c r="D6">
-        <v>7790</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>83366.07000000001</v>
+      </c>
+      <c r="D8">
+        <v>3060</v>
+      </c>
+      <c r="E8">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>16099.76</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>13785.3</v>
+      </c>
+      <c r="D10">
+        <v>630</v>
+      </c>
+      <c r="E10">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
         <v>230000</v>
       </c>
-      <c r="C7">
+      <c r="D11">
         <v>1350</v>
       </c>
-      <c r="D7">
+      <c r="E11">
         <v>2850</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>224350.26</v>
-      </c>
-      <c r="C8">
-        <v>5332.5</v>
-      </c>
-      <c r="D8">
-        <v>11257.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>41454.08</v>
+      </c>
+      <c r="D12">
+        <v>1845</v>
+      </c>
+      <c r="E12">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>182896.18</v>
+      </c>
+      <c r="D13">
+        <v>3487.5</v>
+      </c>
+      <c r="E13">
+        <v>7362.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
         <v>85656.84999999999</v>
       </c>
-      <c r="C9">
+      <c r="D14">
         <v>2475</v>
       </c>
-      <c r="D9">
+      <c r="E14">
         <v>5225</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
         <v>260004.79</v>
       </c>
-      <c r="C11">
+      <c r="D15">
         <v>2700</v>
       </c>
-      <c r="D11">
+      <c r="E15">
         <v>5700</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>72137.63</v>
-      </c>
-      <c r="C12">
-        <v>3420</v>
-      </c>
-      <c r="D12">
-        <v>7220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>17308.69</v>
+      </c>
+      <c r="D16">
+        <v>810</v>
+      </c>
+      <c r="E16">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>54828.94</v>
+      </c>
+      <c r="D17">
+        <v>2610</v>
+      </c>
+      <c r="E17">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
         <v>24329.6</v>
       </c>
-      <c r="C13">
+      <c r="D18">
         <v>1035</v>
       </c>
-      <c r="D13">
+      <c r="E18">
         <v>2185</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
         <v>62304.52</v>
       </c>
-      <c r="C14">
+      <c r="D20">
         <v>2745</v>
       </c>
-      <c r="D14">
+      <c r="E20">
         <v>5795</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
         <v>129923.18</v>
       </c>
-      <c r="C15">
+      <c r="D21">
         <v>5827.5</v>
       </c>
-      <c r="D15">
+      <c r="E21">
         <v>12302.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/payroll_gross.xlsx
+++ b/payroll_gross.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -31,6 +31,24 @@
     <t>SSS_Employer_share</t>
   </si>
   <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>TOTAL SSS</t>
+  </si>
+  <si>
+    <t>SSS_Loan</t>
+  </si>
+  <si>
+    <t>SSS_Calamity Loan</t>
+  </si>
+  <si>
+    <t>PHIC_Employee</t>
+  </si>
+  <si>
+    <t>PHIC_Rmployer_Share</t>
+  </si>
+  <si>
     <t>ACCOUNTING DEPARTMENT</t>
   </si>
   <si>
@@ -76,16 +94,16 @@
     <t>ELISTON PLACE</t>
   </si>
   <si>
+    <t>WTR</t>
+  </si>
+  <si>
+    <t>QH2</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
     <t>WELLINGTON PLACE 6-12</t>
-  </si>
-  <si>
-    <t>WTR</t>
-  </si>
-  <si>
-    <t>QH2</t>
-  </si>
-  <si>
-    <t>MCC</t>
   </si>
 </sst>
 </file>
@@ -443,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,132 +483,276 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>99077.39000000001</v>
+        <v>326974.19</v>
       </c>
       <c r="D2">
-        <v>4432.5</v>
+        <v>5512.5</v>
       </c>
       <c r="E2">
-        <v>9357.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>11637.5</v>
+      </c>
+      <c r="F2">
+        <v>160</v>
+      </c>
+      <c r="G2">
+        <v>17310</v>
+      </c>
+      <c r="H2">
+        <v>4845.22</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>4805.45</v>
+      </c>
+      <c r="K2">
+        <v>4805.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>150147.96</v>
+        <v>132169.34</v>
       </c>
       <c r="D3">
-        <v>6502.5</v>
+        <v>5737.5</v>
       </c>
       <c r="E3">
-        <v>13727.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12112.5</v>
+      </c>
+      <c r="F3">
+        <v>180</v>
+      </c>
+      <c r="G3">
+        <v>18030</v>
+      </c>
+      <c r="H3">
+        <v>7060.18</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3310.325</v>
+      </c>
+      <c r="K3">
+        <v>3310.325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>59708.7</v>
+        <v>31389.94</v>
       </c>
       <c r="D4">
-        <v>3217.5</v>
+        <v>720</v>
       </c>
       <c r="E4">
-        <v>6792.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1520</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>2270</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>402.7</v>
+      </c>
+      <c r="K4">
+        <v>402.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6155.12</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>652.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1377.5</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>2040</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>363.5</v>
+      </c>
+      <c r="K5">
+        <v>363.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>6155.12</v>
+        <v>96803.73</v>
       </c>
       <c r="D6">
-        <v>652.5</v>
+        <v>3915</v>
       </c>
       <c r="E6">
-        <v>1377.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>8265</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+      <c r="G6">
+        <v>12270</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2179.1</v>
+      </c>
+      <c r="K6">
+        <v>2179.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>96803.73</v>
+        <v>130168.43</v>
       </c>
       <c r="D7">
-        <v>3915</v>
+        <v>5962.5</v>
       </c>
       <c r="E7">
-        <v>8265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>12587.5</v>
+      </c>
+      <c r="F7">
+        <v>140</v>
+      </c>
+      <c r="G7">
+        <v>18690</v>
+      </c>
+      <c r="H7">
+        <v>392.23</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3315</v>
+      </c>
+      <c r="K7">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>83366.07000000001</v>
+        <v>7628.18</v>
       </c>
       <c r="D8">
-        <v>3060</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>6460</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1568.93</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>16099.76</v>
@@ -601,13 +763,31 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1568.93</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>13785.3</v>
@@ -618,101 +798,209 @@
       <c r="E10">
         <v>1330</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>1970</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>350</v>
+      </c>
+      <c r="K10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>24982.37</v>
+      </c>
+      <c r="D11">
+        <v>1102.5</v>
+      </c>
+      <c r="E11">
+        <v>2327.5</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>3460</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>617.75</v>
+      </c>
+      <c r="K11">
+        <v>617.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>5453.559999999999</v>
+      </c>
+      <c r="D12">
+        <v>630</v>
+      </c>
+      <c r="E12">
+        <v>1330</v>
+      </c>
+      <c r="F12">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="G12">
+        <v>1970</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>350</v>
+      </c>
+      <c r="K12">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>78386.67</v>
+      </c>
+      <c r="D13">
+        <v>2947.5</v>
+      </c>
+      <c r="E13">
+        <v>6222.5</v>
+      </c>
+      <c r="F13">
+        <v>90</v>
+      </c>
+      <c r="G13">
+        <v>9260</v>
+      </c>
+      <c r="H13">
+        <v>1661.22</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1890.815</v>
+      </c>
+      <c r="K13">
+        <v>1890.825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
-        <v>230000</v>
-      </c>
-      <c r="D11">
-        <v>1350</v>
-      </c>
-      <c r="E11">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>39682.92</v>
+      </c>
+      <c r="D14">
+        <v>2070</v>
+      </c>
+      <c r="E14">
+        <v>4370</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>6500</v>
+      </c>
+      <c r="H14">
+        <v>1845.8</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1153.5</v>
+      </c>
+      <c r="K14">
+        <v>1153.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
-        <v>41454.08</v>
-      </c>
-      <c r="D12">
-        <v>1845</v>
-      </c>
-      <c r="E12">
-        <v>3895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>182896.18</v>
-      </c>
-      <c r="D13">
-        <v>3487.5</v>
-      </c>
-      <c r="E13">
-        <v>7362.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>85656.84999999999</v>
-      </c>
-      <c r="D14">
-        <v>2475</v>
-      </c>
-      <c r="E14">
-        <v>5225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>260004.79</v>
+        <v>254329.6</v>
       </c>
       <c r="D15">
-        <v>2700</v>
+        <v>2385</v>
       </c>
       <c r="E15">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>5035</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <v>7480</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>3078.5</v>
+      </c>
+      <c r="K15">
+        <v>3078.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>17308.69</v>
+        <v>17516.92</v>
       </c>
       <c r="D16">
         <v>810</v>
@@ -720,107 +1008,198 @@
       <c r="E16">
         <v>1710</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>2550</v>
+      </c>
+      <c r="H16">
+        <v>1661.22</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>450</v>
+      </c>
+      <c r="K16">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>54828.94</v>
+        <v>52904.63</v>
       </c>
       <c r="D17">
-        <v>2610</v>
+        <v>2452.5</v>
       </c>
       <c r="E17">
-        <v>5510</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>5177.5</v>
+      </c>
+      <c r="F17">
+        <v>90</v>
+      </c>
+      <c r="G17">
+        <v>7720</v>
+      </c>
+      <c r="H17">
+        <v>2584.12</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1363</v>
+      </c>
+      <c r="K17">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>24329.6</v>
+        <v>23995.33</v>
       </c>
       <c r="D18">
-        <v>1035</v>
+        <v>1080</v>
       </c>
       <c r="E18">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>2280</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>3390</v>
+      </c>
+      <c r="H18">
+        <v>1845.8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>594</v>
+      </c>
+      <c r="K18">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>17308.69</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>1710</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>2550</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>444.65</v>
+      </c>
+      <c r="K19">
+        <v>444.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>62304.52</v>
+        <v>44151.69</v>
       </c>
       <c r="D20">
-        <v>2745</v>
+        <v>2070</v>
       </c>
       <c r="E20">
-        <v>5795</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>4370</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>6500</v>
+      </c>
+      <c r="H20">
+        <v>1845.8</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1153.425</v>
+      </c>
+      <c r="K20">
+        <v>1153.425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>129923.18</v>
+        <v>301592.67</v>
       </c>
       <c r="D21">
-        <v>5827.5</v>
+        <v>7807.5</v>
       </c>
       <c r="E21">
-        <v>12302.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>16482.5</v>
+      </c>
+      <c r="F21">
+        <v>220</v>
+      </c>
+      <c r="G21">
+        <v>24510</v>
+      </c>
+      <c r="H21">
+        <v>10106.03</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7093.7625</v>
+      </c>
+      <c r="K21">
+        <v>7093.7625</v>
       </c>
     </row>
   </sheetData>

--- a/payroll_gross.xlsx
+++ b/payroll_gross.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -49,6 +49,60 @@
     <t>PHIC_Rmployer_Share</t>
   </si>
   <si>
+    <t>TOTAL PHIC</t>
+  </si>
+  <si>
+    <t>HDMF_CONTRIBUTION_employee</t>
+  </si>
+  <si>
+    <t>HDMF_CONTRIBUTION_employer</t>
+  </si>
+  <si>
+    <t>TOTAL HDMF</t>
+  </si>
+  <si>
+    <t>HDMF_LOAN</t>
+  </si>
+  <si>
+    <t>HDMF_CALAMITY</t>
+  </si>
+  <si>
+    <t>W_TAX_2024</t>
+  </si>
+  <si>
+    <t>CASH_ADVANCE</t>
+  </si>
+  <si>
+    <t>Personal_Loan_(MA)</t>
+  </si>
+  <si>
+    <t>13th_Month_Pay_over_Payment</t>
+  </si>
+  <si>
+    <t>Ad 13 Month Pay</t>
+  </si>
+  <si>
+    <t>Return_loan_sss_loan</t>
+  </si>
+  <si>
+    <t>Regular_Allowance</t>
+  </si>
+  <si>
+    <t>Holiday_RDOT_Pay</t>
+  </si>
+  <si>
+    <t>meal</t>
+  </si>
+  <si>
+    <t>Developmental</t>
+  </si>
+  <si>
+    <t>Add_Others Adjustment</t>
+  </si>
+  <si>
+    <t>Net_Pay</t>
+  </si>
+  <si>
     <t>ACCOUNTING DEPARTMENT</t>
   </si>
   <si>
@@ -88,6 +142,12 @@
     <t>TREASURY DEPARTMENT</t>
   </si>
   <si>
+    <t>SALARIES &amp; WAGES - ACCOUNTING</t>
+  </si>
+  <si>
+    <t>SALARIES &amp; WAGES - ADMIN</t>
+  </si>
+  <si>
     <t>GENERAL COMMON EXPENSE</t>
   </si>
   <si>
@@ -98,9 +158,6 @@
   </si>
   <si>
     <t>QH2</t>
-  </si>
-  <si>
-    <t>MCC</t>
   </si>
   <si>
     <t>WELLINGTON PLACE 6-12</t>
@@ -461,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,118 +558,334 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>326974.19</v>
+        <v>99077.39</v>
       </c>
       <c r="D2">
-        <v>5512.5</v>
+        <v>4432.5</v>
       </c>
       <c r="E2">
-        <v>11637.5</v>
+        <v>9357.5</v>
       </c>
       <c r="F2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G2">
-        <v>17310</v>
+        <v>13940</v>
       </c>
       <c r="H2">
-        <v>4845.22</v>
+        <v>3645.45</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4805.45</v>
+        <v>2457.8</v>
       </c>
       <c r="K2">
-        <v>4805.45</v>
+        <v>2457.8</v>
+      </c>
+      <c r="L2">
+        <v>4915.6</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>1000</v>
+      </c>
+      <c r="O2">
+        <v>2000</v>
+      </c>
+      <c r="P2">
+        <v>3134.05</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>238.1775</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>167.39</v>
+      </c>
+      <c r="V2">
+        <v>111.82</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>7870.92</v>
+      </c>
+      <c r="Y2">
+        <v>96.62</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>92081.38249999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>132169.34</v>
+        <v>150147.96</v>
       </c>
       <c r="D3">
-        <v>5737.5</v>
+        <v>6502.5</v>
       </c>
       <c r="E3">
-        <v>12112.5</v>
+        <v>13727.5</v>
       </c>
       <c r="F3">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G3">
-        <v>18030</v>
+        <v>20400</v>
       </c>
       <c r="H3">
-        <v>7060.18</v>
+        <v>7706.21</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3310.325</v>
+        <v>3750.025</v>
       </c>
       <c r="K3">
-        <v>3310.325</v>
+        <v>3750.025</v>
+      </c>
+      <c r="L3">
+        <v>7500.049999999999</v>
+      </c>
+      <c r="M3">
+        <v>1400</v>
+      </c>
+      <c r="N3">
+        <v>1400</v>
+      </c>
+      <c r="O3">
+        <v>2800</v>
+      </c>
+      <c r="P3">
+        <v>7809.38</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>2272.94625</v>
+      </c>
+      <c r="S3">
+        <v>5000</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>333.82</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>18300</v>
+      </c>
+      <c r="Y3">
+        <v>330.14</v>
+      </c>
+      <c r="Z3">
+        <v>4000</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>138003.21875</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>31389.94</v>
+        <v>59708.7</v>
       </c>
       <c r="D4">
-        <v>720</v>
+        <v>3217.5</v>
       </c>
       <c r="E4">
-        <v>1520</v>
+        <v>6792.5</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G4">
-        <v>2270</v>
+        <v>10070</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>392.23</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>402.7</v>
+        <v>1790</v>
       </c>
       <c r="K4">
-        <v>402.7</v>
+        <v>1790</v>
+      </c>
+      <c r="L4">
+        <v>3580</v>
+      </c>
+      <c r="M4">
+        <v>800</v>
+      </c>
+      <c r="N4">
+        <v>700</v>
+      </c>
+      <c r="O4">
+        <v>1500</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1077.057</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>134.19</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>14400</v>
+      </c>
+      <c r="Y4">
+        <v>331.28</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>68209.003</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>6155.12</v>
@@ -641,13 +914,67 @@
       <c r="K5">
         <v>363.5</v>
       </c>
+      <c r="L5">
+        <v>727</v>
+      </c>
+      <c r="M5">
+        <v>200</v>
+      </c>
+      <c r="N5">
+        <v>200</v>
+      </c>
+      <c r="O5">
+        <v>400</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>46.45</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>6108.67</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>96803.73</v>
@@ -676,51 +1003,159 @@
       <c r="K6">
         <v>2179.1</v>
       </c>
+      <c r="L6">
+        <v>4358.2</v>
+      </c>
+      <c r="M6">
+        <v>1000</v>
+      </c>
+      <c r="N6">
+        <v>1000</v>
+      </c>
+      <c r="O6">
+        <v>2000</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1379.193</v>
+      </c>
+      <c r="S6">
+        <v>7000</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>57.83</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>6100</v>
+      </c>
+      <c r="Y6">
+        <v>140.34</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>87628.607</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>130168.43</v>
+        <v>83366.06999999999</v>
       </c>
       <c r="D7">
-        <v>5962.5</v>
+        <v>3060</v>
       </c>
       <c r="E7">
-        <v>12587.5</v>
+        <v>6460</v>
       </c>
       <c r="F7">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G7">
-        <v>18690</v>
+        <v>9610</v>
       </c>
       <c r="H7">
-        <v>392.23</v>
+        <v>1661.22</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3315</v>
+        <v>1700</v>
       </c>
       <c r="K7">
-        <v>3315</v>
+        <v>1700</v>
+      </c>
+      <c r="L7">
+        <v>3400</v>
+      </c>
+      <c r="M7">
+        <v>600</v>
+      </c>
+      <c r="N7">
+        <v>600</v>
+      </c>
+      <c r="O7">
+        <v>1200</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>823.1775</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>2915.91</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>7900</v>
+      </c>
+      <c r="Y7">
+        <v>181.75</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>80687.5125</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>7628.18</v>
+        <v>16099.76</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -746,63 +1181,171 @@
       <c r="K8">
         <v>0</v>
       </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>500</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>75.08</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>13955.75</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>16099.76</v>
+        <v>13785.3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1330</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="H9">
-        <v>1568.93</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="L9">
+        <v>700</v>
+      </c>
+      <c r="M9">
+        <v>200</v>
+      </c>
+      <c r="N9">
+        <v>200</v>
+      </c>
+      <c r="O9">
+        <v>400</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>12605.3</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>13785.3</v>
+        <v>230000</v>
       </c>
       <c r="D10">
-        <v>630</v>
+        <v>1350</v>
       </c>
       <c r="E10">
-        <v>1330</v>
+        <v>2850</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>1970</v>
+        <v>4230</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -811,33 +1354,87 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>350</v>
+        <v>2500</v>
       </c>
       <c r="K10">
-        <v>350</v>
+        <v>2500</v>
+      </c>
+      <c r="L10">
+        <v>5000</v>
+      </c>
+      <c r="M10">
+        <v>200</v>
+      </c>
+      <c r="N10">
+        <v>200</v>
+      </c>
+      <c r="O10">
+        <v>400</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>51326.7</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>174623.3</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>24982.37</v>
+        <v>41454.08</v>
       </c>
       <c r="D11">
-        <v>1102.5</v>
+        <v>1845</v>
       </c>
       <c r="E11">
-        <v>2327.5</v>
+        <v>3895</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G11">
-        <v>3460</v>
+        <v>5800</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -846,33 +1443,87 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>617.75</v>
+        <v>1027.7</v>
       </c>
       <c r="K11">
-        <v>617.75</v>
+        <v>1027.7</v>
+      </c>
+      <c r="L11">
+        <v>2055.4</v>
+      </c>
+      <c r="M11">
+        <v>400</v>
+      </c>
+      <c r="N11">
+        <v>400</v>
+      </c>
+      <c r="O11">
+        <v>800</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>332.550000000001</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>37848.83</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C12">
-        <v>5453.559999999999</v>
+        <v>182896.18</v>
       </c>
       <c r="D12">
-        <v>630</v>
+        <v>3487.5</v>
       </c>
       <c r="E12">
-        <v>1330</v>
+        <v>7362.5</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G12">
-        <v>1970</v>
+        <v>10940</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -881,325 +1532,703 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>350</v>
+        <v>3932.9</v>
       </c>
       <c r="K12">
-        <v>350</v>
+        <v>3932.9</v>
+      </c>
+      <c r="L12">
+        <v>7865.8</v>
+      </c>
+      <c r="M12">
+        <v>600</v>
+      </c>
+      <c r="N12">
+        <v>600</v>
+      </c>
+      <c r="O12">
+        <v>1200</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>24848.432</v>
+      </c>
+      <c r="S12">
+        <v>4600</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>20000</v>
+      </c>
+      <c r="Y12">
+        <v>230.06</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>165657.408</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>78386.67</v>
+        <v>85656.85000000001</v>
       </c>
       <c r="D13">
-        <v>2947.5</v>
+        <v>2475</v>
       </c>
       <c r="E13">
-        <v>6222.5</v>
+        <v>5225</v>
       </c>
       <c r="F13">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G13">
-        <v>9260</v>
+        <v>7760</v>
       </c>
       <c r="H13">
-        <v>1661.22</v>
+        <v>1845.8</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1890.815</v>
+        <v>2375</v>
       </c>
       <c r="K13">
-        <v>1890.825</v>
+        <v>2375</v>
+      </c>
+      <c r="L13">
+        <v>4750</v>
+      </c>
+      <c r="M13">
+        <v>400</v>
+      </c>
+      <c r="N13">
+        <v>400</v>
+      </c>
+      <c r="O13">
+        <v>800</v>
+      </c>
+      <c r="P13">
+        <v>3826.05</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>7783.21</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>18157.16</v>
+      </c>
+      <c r="U13">
+        <v>6.66</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>2000</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>50787.97</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C14">
-        <v>39682.92</v>
+        <v>260004.79</v>
       </c>
       <c r="D14">
-        <v>2070</v>
+        <v>2700</v>
       </c>
       <c r="E14">
-        <v>4370</v>
+        <v>5700</v>
       </c>
       <c r="F14">
         <v>60</v>
       </c>
       <c r="G14">
+        <v>8460</v>
+      </c>
+      <c r="H14">
+        <v>1523.08</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3250</v>
+      </c>
+      <c r="K14">
+        <v>3250</v>
+      </c>
+      <c r="L14">
         <v>6500</v>
       </c>
-      <c r="H14">
+      <c r="M14">
+        <v>400</v>
+      </c>
+      <c r="N14">
+        <v>400</v>
+      </c>
+      <c r="O14">
+        <v>800</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>52357.4685</v>
+      </c>
+      <c r="S14">
+        <v>2000</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>197774.2415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>17308.69</v>
+      </c>
+      <c r="D15">
+        <v>810</v>
+      </c>
+      <c r="E15">
+        <v>1710</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+      <c r="G15">
+        <v>2550</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>444.65</v>
+      </c>
+      <c r="K15">
+        <v>444.65</v>
+      </c>
+      <c r="L15">
+        <v>889.3</v>
+      </c>
+      <c r="M15">
+        <v>200</v>
+      </c>
+      <c r="N15">
+        <v>200</v>
+      </c>
+      <c r="O15">
+        <v>400</v>
+      </c>
+      <c r="P15">
+        <v>941.46</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>14912.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>54828.94</v>
+      </c>
+      <c r="D16">
+        <v>2610</v>
+      </c>
+      <c r="E16">
+        <v>5510</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>8210</v>
+      </c>
+      <c r="H16">
         <v>1845.8</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1153.5</v>
-      </c>
-      <c r="K14">
-        <v>1153.5</v>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1453.5</v>
+      </c>
+      <c r="K16">
+        <v>1453.5</v>
+      </c>
+      <c r="L16">
+        <v>2907</v>
+      </c>
+      <c r="M16">
+        <v>600</v>
+      </c>
+      <c r="N16">
+        <v>600</v>
+      </c>
+      <c r="O16">
+        <v>1200</v>
+      </c>
+      <c r="P16">
+        <v>1611.71</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>2000</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>230.03</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>1000</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>45477.9</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>254329.6</v>
-      </c>
-      <c r="D15">
-        <v>2385</v>
-      </c>
-      <c r="E15">
-        <v>5035</v>
-      </c>
-      <c r="F15">
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <v>7480</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>3078.5</v>
-      </c>
-      <c r="K15">
-        <v>3078.5</v>
+    <row r="17" spans="1:29">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>24329.6</v>
+      </c>
+      <c r="D17">
+        <v>1035</v>
+      </c>
+      <c r="E17">
+        <v>2185</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>3250</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>578.5</v>
+      </c>
+      <c r="K17">
+        <v>578.5</v>
+      </c>
+      <c r="L17">
+        <v>1157</v>
+      </c>
+      <c r="M17">
+        <v>200</v>
+      </c>
+      <c r="N17">
+        <v>200</v>
+      </c>
+      <c r="O17">
+        <v>400</v>
+      </c>
+      <c r="P17">
+        <v>309.3</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>252.465</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>9500</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>1000</v>
+      </c>
+      <c r="Y17">
+        <v>11.5</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>1000</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>14465.835</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>17516.92</v>
-      </c>
-      <c r="D16">
-        <v>810</v>
-      </c>
-      <c r="E16">
-        <v>1710</v>
-      </c>
-      <c r="F16">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <v>2550</v>
-      </c>
-      <c r="H16">
-        <v>1661.22</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>450</v>
-      </c>
-      <c r="K16">
-        <v>450</v>
+    <row r="18" spans="1:29">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>62304.52</v>
+      </c>
+      <c r="D18">
+        <v>2745</v>
+      </c>
+      <c r="E18">
+        <v>5795</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>8630</v>
+      </c>
+      <c r="H18">
+        <v>5491.25</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1514.55</v>
+      </c>
+      <c r="K18">
+        <v>1514.55</v>
+      </c>
+      <c r="L18">
+        <v>3029.1</v>
+      </c>
+      <c r="M18">
+        <v>600</v>
+      </c>
+      <c r="N18">
+        <v>600</v>
+      </c>
+      <c r="O18">
+        <v>1200</v>
+      </c>
+      <c r="P18">
+        <v>1612.17</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>273.1710000000002</v>
+      </c>
+      <c r="S18">
+        <v>3000</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>455.6</v>
+      </c>
+      <c r="X18">
+        <v>6300</v>
+      </c>
+      <c r="Y18">
+        <v>144.94</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>53968.919</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>52904.63</v>
-      </c>
-      <c r="D17">
-        <v>2452.5</v>
-      </c>
-      <c r="E17">
-        <v>5177.5</v>
-      </c>
-      <c r="F17">
-        <v>90</v>
-      </c>
-      <c r="G17">
-        <v>7720</v>
-      </c>
-      <c r="H17">
-        <v>2584.12</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1363</v>
-      </c>
-      <c r="K17">
-        <v>1363</v>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>129923.18</v>
+      </c>
+      <c r="D19">
+        <v>5827.5</v>
+      </c>
+      <c r="E19">
+        <v>12302.5</v>
+      </c>
+      <c r="F19">
+        <v>210</v>
+      </c>
+      <c r="G19">
+        <v>18340</v>
+      </c>
+      <c r="H19">
+        <v>9736.58</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3248.2525</v>
+      </c>
+      <c r="K19">
+        <v>3248.2625</v>
+      </c>
+      <c r="L19">
+        <v>6496.515</v>
+      </c>
+      <c r="M19">
+        <v>1400</v>
+      </c>
+      <c r="N19">
+        <v>1400</v>
+      </c>
+      <c r="O19">
+        <v>2800</v>
+      </c>
+      <c r="P19">
+        <v>2698.92</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>409.20075</v>
+      </c>
+      <c r="S19">
+        <v>3000</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>153.36</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>6200</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>109649.36675</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>23995.33</v>
-      </c>
-      <c r="D18">
-        <v>1080</v>
-      </c>
-      <c r="E18">
-        <v>2280</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-      <c r="G18">
-        <v>3390</v>
-      </c>
-      <c r="H18">
-        <v>1845.8</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>594</v>
-      </c>
-      <c r="K18">
-        <v>594</v>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>99077.39</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>17308.69</v>
-      </c>
-      <c r="D19">
-        <v>810</v>
-      </c>
-      <c r="E19">
-        <v>1710</v>
-      </c>
-      <c r="F19">
-        <v>30</v>
-      </c>
-      <c r="G19">
-        <v>2550</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>444.65</v>
-      </c>
-      <c r="K19">
-        <v>444.65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>44151.69</v>
-      </c>
-      <c r="D20">
-        <v>2070</v>
-      </c>
-      <c r="E20">
-        <v>4370</v>
-      </c>
-      <c r="F20">
-        <v>60</v>
-      </c>
-      <c r="G20">
-        <v>6500</v>
-      </c>
-      <c r="H20">
-        <v>1845.8</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1153.425</v>
-      </c>
-      <c r="K20">
-        <v>1153.425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21">
-        <v>301592.67</v>
-      </c>
-      <c r="D21">
-        <v>7807.5</v>
-      </c>
-      <c r="E21">
-        <v>16482.5</v>
-      </c>
-      <c r="F21">
-        <v>220</v>
-      </c>
-      <c r="G21">
-        <v>24510</v>
-      </c>
-      <c r="H21">
-        <v>10106.03</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>7093.7625</v>
-      </c>
-      <c r="K21">
-        <v>7093.7625</v>
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>150147.96</v>
       </c>
     </row>
   </sheetData>

--- a/payroll_gross.xlsx
+++ b/payroll_gross.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -22,6 +22,9 @@
     <t>BOOKS</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Total_Gross</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>Return_loan_sss_loan</t>
   </si>
   <si>
+    <t>NET_GROSS</t>
+  </si>
+  <si>
     <t>Regular_Allowance</t>
   </si>
   <si>
@@ -106,36 +112,24 @@
     <t>TOTAL SHARES</t>
   </si>
   <si>
-    <t>ACCOUNTING DEPARTMENT</t>
-  </si>
-  <si>
-    <t>ADMIN DEPARTMENT</t>
-  </si>
-  <si>
-    <t>FINANCE DEPARTMENT</t>
+    <t>ACCRUED PAYROLL</t>
+  </si>
+  <si>
+    <t>GROSS</t>
+  </si>
+  <si>
+    <t>EMD DEPARTMENT</t>
+  </si>
+  <si>
+    <t>ENGINEERING DEPARTMENT - CAVITE</t>
   </si>
   <si>
     <t>HR DEPARTMENT</t>
   </si>
   <si>
-    <t>LEGAL DEPARTMENT</t>
-  </si>
-  <si>
-    <t>OFFICE OF THE PRESIDENT</t>
-  </si>
-  <si>
     <t>PERMITS &amp; LICENSES DEPARTMENT</t>
   </si>
   <si>
-    <t>PLANNING &amp; DESIGN DEPARTMENT</t>
-  </si>
-  <si>
-    <t>SALES &amp; LOAN DOCUMENTATION</t>
-  </si>
-  <si>
-    <t>TREASURY DEPARTMENT</t>
-  </si>
-  <si>
     <t>SALARIES &amp; WAGES - ACCOUNTING DEPARTMENT</t>
   </si>
   <si>
@@ -313,75 +307,43 @@
     <t>PAG-IBIG CONTRIBUTIONS PAYABLE</t>
   </si>
   <si>
-    <t>ADVANCES</t>
-  </si>
-  <si>
-    <t>GENERAL COMMON EXPENSE</t>
-  </si>
-  <si>
-    <t>0        0.0
-1     5000.0
-2        0.0
-3     4600.0
-4        0.0
-5     2000.0
-6     2000.0
-7        0.0
-8     3000.0
-9     3000.0
-10       NaN
-11       NaN
-12       NaN
-13       NaN
-14       NaN
-15       NaN
-16       NaN
-17       NaN
-18       NaN
-19       NaN
-20       NaN
-21       NaN
-22       NaN
-23       NaN
-24       NaN
-25       NaN
-26       NaN
-27       NaN
-28       NaN
-29       NaN
-30       NaN
-31       NaN
-32       NaN
-33       NaN
-34       NaN
-35       NaN
-36       NaN
-37       NaN
-38       NaN
-39       NaN
-40       NaN
-41       NaN
-42       NaN
-43       NaN
-44       NaN
-45       NaN
-46       NaN
-47       NaN
-48       NaN
-49       NaN
-50       NaN
-51       NaN
-52       NaN
-53       NaN
-54       NaN
-55       NaN
-56       NaN
-57       NaN
-58       NaN
-59       NaN
-60       NaN
-61       NaN
-Name: CASH_ADVANCE, dtype: float64</t>
+    <t>PAG-IBIG SALARY LOAN PAYABLE</t>
+  </si>
+  <si>
+    <t>MARTEJA, GEORGE DELA TORRE</t>
+  </si>
+  <si>
+    <t>ELISTON PLACE</t>
+  </si>
+  <si>
+    <t>LIPIAN, MA. CERLITA</t>
+  </si>
+  <si>
+    <t>MALACAS, JERICO CRUZ</t>
+  </si>
+  <si>
+    <t>SAMBAJON, MA. CRISTINA FAUNI</t>
+  </si>
+  <si>
+    <t>SILONG, JIRALP VALDEZ</t>
+  </si>
+  <si>
+    <t>CORONEJO, JOSEPH BUENO</t>
+  </si>
+  <si>
+    <t>DELA PASION, RECEL DELIMA</t>
+  </si>
+  <si>
+    <t>EVANGELISTA, JOSHUA CALINISAN</t>
+  </si>
+  <si>
+    <t>HERMO, GRAZELENE ANNE</t>
+  </si>
+  <si>
+    <t>REQUISO, MERIAM LICAYAN</t>
+  </si>
+  <si>
+    <t>BERNADIT, SERAPIO MAHAYAG</t>
   </si>
 </sst>
 </file>
@@ -739,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD72"/>
+  <dimension ref="A1:AH74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,340 +798,388 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>11656.68</v>
+      </c>
+      <c r="E2">
+        <v>630</v>
+      </c>
+      <c r="F2">
+        <v>1330</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>1970</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>350</v>
+      </c>
+      <c r="L2">
+        <v>350</v>
+      </c>
+      <c r="M2">
+        <v>700</v>
+      </c>
+      <c r="N2">
+        <v>200</v>
+      </c>
+      <c r="O2">
+        <v>200</v>
+      </c>
+      <c r="P2">
+        <v>400</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>44.73</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>10431.95</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>10431.95</v>
+      </c>
+      <c r="AF2">
+        <v>1340</v>
+      </c>
+      <c r="AG2">
+        <v>10431.95</v>
+      </c>
+      <c r="AH2">
+        <v>11656.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>5453.559999999999</v>
+      </c>
+      <c r="E3">
+        <v>630</v>
+      </c>
+      <c r="F3">
+        <v>1330</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>1970</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>350</v>
+      </c>
+      <c r="L3">
+        <v>350</v>
+      </c>
+      <c r="M3">
+        <v>700</v>
+      </c>
+      <c r="N3">
+        <v>200</v>
+      </c>
+      <c r="O3">
+        <v>200</v>
+      </c>
+      <c r="P3">
+        <v>400</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>44.73</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>5408.83</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>5408.83</v>
+      </c>
+      <c r="AF3">
+        <v>1340</v>
+      </c>
+      <c r="AG3">
+        <v>5408.83</v>
+      </c>
+      <c r="AH3">
+        <v>5453.559999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4">
+        <v>30280.88</v>
+      </c>
+      <c r="E4">
+        <v>1327.5</v>
+      </c>
+      <c r="F4">
+        <v>2802.5</v>
+      </c>
+      <c r="G4">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>99077.39000000001</v>
-      </c>
-      <c r="D2">
-        <v>4432.5</v>
-      </c>
-      <c r="E2">
-        <v>9357.5</v>
-      </c>
-      <c r="F2">
-        <v>150</v>
-      </c>
-      <c r="G2">
-        <v>13940</v>
-      </c>
-      <c r="H2">
-        <v>3645.45</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>2457.8</v>
-      </c>
-      <c r="K2">
-        <v>2457.8</v>
-      </c>
-      <c r="L2">
-        <v>4915.6</v>
-      </c>
-      <c r="M2">
-        <v>1000</v>
-      </c>
-      <c r="N2">
-        <v>1000</v>
-      </c>
-      <c r="O2">
-        <v>2000</v>
-      </c>
-      <c r="P2">
-        <v>3134.05</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>238.1774999999998</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>167.39</v>
-      </c>
-      <c r="V2">
-        <v>111.82</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>7870.919999999999</v>
-      </c>
-      <c r="Y2">
-        <v>96.62</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>92081.38250000001</v>
-      </c>
-      <c r="AD2">
-        <v>9507.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>150147.96</v>
-      </c>
-      <c r="D3">
-        <v>6502.5</v>
-      </c>
-      <c r="E3">
-        <v>13727.5</v>
-      </c>
-      <c r="F3">
-        <v>170</v>
-      </c>
-      <c r="G3">
-        <v>20400</v>
-      </c>
-      <c r="H3">
-        <v>7706.21</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>3750.025</v>
-      </c>
-      <c r="K3">
-        <v>3750.025</v>
-      </c>
-      <c r="L3">
-        <v>7500.05</v>
-      </c>
-      <c r="M3">
-        <v>1400</v>
-      </c>
-      <c r="N3">
-        <v>1400</v>
-      </c>
-      <c r="O3">
-        <v>2800</v>
-      </c>
-      <c r="P3">
-        <v>7809.38</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>2272.946249999999</v>
-      </c>
-      <c r="S3">
-        <v>5000</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>333.82</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>18300</v>
-      </c>
-      <c r="Y3">
-        <v>330.14</v>
-      </c>
-      <c r="Z3">
-        <v>4000</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>138003.21875</v>
-      </c>
-      <c r="AD3">
-        <v>13897.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>230000</v>
-      </c>
-      <c r="D4">
-        <v>1350</v>
-      </c>
-      <c r="E4">
-        <v>2850</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <v>4230</v>
-      </c>
       <c r="H4">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2500</v>
+        <v>740</v>
       </c>
       <c r="L4">
-        <v>5000</v>
+        <v>740</v>
       </c>
       <c r="M4">
-        <v>200</v>
+        <v>1480</v>
       </c>
       <c r="N4">
         <v>200</v>
       </c>
       <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>300</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1077.057</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>26936.323</v>
+      </c>
+      <c r="Z4">
+        <v>14400</v>
+      </c>
+      <c r="AA4">
+        <v>331.28</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>41667.603</v>
+      </c>
+      <c r="AF4">
+        <v>2832.5</v>
+      </c>
+      <c r="AG4">
+        <v>12205.043</v>
+      </c>
+      <c r="AH4">
+        <v>45012.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5">
+        <v>12317.58</v>
+      </c>
+      <c r="E5">
+        <v>630</v>
+      </c>
+      <c r="F5">
+        <v>1330</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1970</v>
+      </c>
+      <c r="I5">
+        <v>392.23</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>350</v>
+      </c>
+      <c r="L5">
+        <v>350</v>
+      </c>
+      <c r="M5">
+        <v>700</v>
+      </c>
+      <c r="N5">
+        <v>200</v>
+      </c>
+      <c r="O5">
+        <v>200</v>
+      </c>
+      <c r="P5">
         <v>400</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>51326.7</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>174623.3</v>
-      </c>
-      <c r="AD4">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>182896.18</v>
-      </c>
-      <c r="D5">
-        <v>3487.5</v>
-      </c>
-      <c r="E5">
-        <v>7362.5</v>
-      </c>
-      <c r="F5">
-        <v>90</v>
-      </c>
-      <c r="G5">
-        <v>10940</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>3932.9</v>
-      </c>
-      <c r="K5">
-        <v>3932.9</v>
-      </c>
-      <c r="L5">
-        <v>7865.8</v>
-      </c>
-      <c r="M5">
-        <v>600</v>
-      </c>
-      <c r="N5">
-        <v>600</v>
-      </c>
-      <c r="O5">
-        <v>1200</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>24848.432</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1178,16 +1188,16 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>44.73</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>230.06</v>
+        <v>10700.62</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1199,75 +1209,87 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>165657.408</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>7452.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>10700.62</v>
+      </c>
+      <c r="AF5">
+        <v>1340</v>
+      </c>
+      <c r="AG5">
+        <v>10700.62</v>
+      </c>
+      <c r="AH5">
+        <v>12317.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>85656.84999999999</v>
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
       </c>
       <c r="D6">
-        <v>2475</v>
+        <v>17516.92</v>
       </c>
       <c r="E6">
-        <v>5225</v>
+        <v>810</v>
       </c>
       <c r="F6">
-        <v>60</v>
+        <v>1710</v>
       </c>
       <c r="G6">
-        <v>7760</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>1845.8</v>
+        <v>2550</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1661.22</v>
       </c>
       <c r="J6">
-        <v>2375</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2375</v>
+        <v>450</v>
       </c>
       <c r="L6">
-        <v>4750</v>
+        <v>450</v>
       </c>
       <c r="M6">
+        <v>900</v>
+      </c>
+      <c r="N6">
+        <v>200</v>
+      </c>
+      <c r="O6">
+        <v>200</v>
+      </c>
+      <c r="P6">
         <v>400</v>
       </c>
-      <c r="N6">
-        <v>400</v>
-      </c>
-      <c r="O6">
-        <v>800</v>
-      </c>
-      <c r="P6">
-        <v>3826.05</v>
-      </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>7783.209999999998</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>18157.16</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>6.66</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1279,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>14395.7</v>
       </c>
       <c r="Z6">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1291,507 +1313,675 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>50787.96999999998</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>5285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>14395.7</v>
+      </c>
+      <c r="AF6">
+        <v>1740</v>
+      </c>
+      <c r="AG6">
+        <v>14395.7</v>
+      </c>
+      <c r="AH6">
+        <v>17516.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>260004.79</v>
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
       </c>
       <c r="D7">
-        <v>2700</v>
+        <v>22432.44</v>
       </c>
       <c r="E7">
-        <v>5700</v>
+        <v>990</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>2090</v>
       </c>
       <c r="G7">
-        <v>8460</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1523.08</v>
+        <v>3110</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3250</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3250</v>
+        <v>550</v>
       </c>
       <c r="L7">
-        <v>6500</v>
+        <v>550</v>
       </c>
       <c r="M7">
+        <v>1100</v>
+      </c>
+      <c r="N7">
+        <v>200</v>
+      </c>
+      <c r="O7">
+        <v>200</v>
+      </c>
+      <c r="P7">
         <v>400</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>20692.44</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>20692.44</v>
+      </c>
+      <c r="AF7">
+        <v>2120</v>
+      </c>
+      <c r="AG7">
+        <v>20692.44</v>
+      </c>
+      <c r="AH7">
+        <v>22432.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8">
+        <v>28480.85</v>
+      </c>
+      <c r="E8">
+        <v>1260</v>
+      </c>
+      <c r="F8">
+        <v>2660</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>3950</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>700</v>
+      </c>
+      <c r="L8">
+        <v>700</v>
+      </c>
+      <c r="M8">
+        <v>1400</v>
+      </c>
+      <c r="N8">
+        <v>200</v>
+      </c>
+      <c r="O8">
+        <v>200</v>
+      </c>
+      <c r="P8">
         <v>400</v>
       </c>
-      <c r="O7">
-        <v>800</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>52357.4685</v>
-      </c>
-      <c r="S7">
-        <v>2000</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>197774.2415</v>
-      </c>
-      <c r="AD7">
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" t="s">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>823.1775000000004</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>25497.6725</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>25497.6725</v>
+      </c>
+      <c r="AF8">
+        <v>2690</v>
+      </c>
+      <c r="AG8">
+        <v>25497.6725</v>
+      </c>
+      <c r="AH8">
+        <v>28480.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9">
+        <v>14935.86</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>2915.91</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>12019.95</v>
+      </c>
+      <c r="Z9">
+        <v>7900</v>
+      </c>
+      <c r="AA9">
+        <v>181.75</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>20101.7</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>3938.200000000001</v>
+      </c>
+      <c r="AH9">
+        <v>23017.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>54828.94</v>
-      </c>
-      <c r="D8">
-        <v>2610</v>
-      </c>
-      <c r="E8">
-        <v>5510</v>
-      </c>
-      <c r="F8">
-        <v>90</v>
-      </c>
-      <c r="G8">
-        <v>8210</v>
-      </c>
-      <c r="H8">
-        <v>1845.8</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1453.5</v>
-      </c>
-      <c r="K8">
-        <v>1453.5</v>
-      </c>
-      <c r="L8">
-        <v>2907</v>
-      </c>
-      <c r="M8">
-        <v>600</v>
-      </c>
-      <c r="N8">
-        <v>600</v>
-      </c>
-      <c r="O8">
-        <v>1200</v>
-      </c>
-      <c r="P8">
-        <v>1611.71</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>2000</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>230.03</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>1000</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>45477.90000000001</v>
-      </c>
-      <c r="AD8">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <v>25000</v>
+      </c>
+      <c r="E10">
+        <v>1125</v>
+      </c>
+      <c r="F10">
+        <v>2375</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>3530</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>625</v>
+      </c>
+      <c r="L10">
+        <v>625</v>
+      </c>
+      <c r="M10">
+        <v>1250</v>
+      </c>
+      <c r="N10">
+        <v>200</v>
+      </c>
+      <c r="O10">
+        <v>200</v>
+      </c>
+      <c r="P10">
+        <v>400</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>332.5500000000005</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>22717.45</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>22717.45</v>
+      </c>
+      <c r="AF10">
+        <v>2405</v>
+      </c>
+      <c r="AG10">
+        <v>22717.45</v>
+      </c>
+      <c r="AH10">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <v>16454.08</v>
+      </c>
+      <c r="E11">
+        <v>720</v>
+      </c>
+      <c r="F11">
+        <v>1520</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>2270</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>402.7</v>
+      </c>
+      <c r="L11">
+        <v>402.7</v>
+      </c>
+      <c r="M11">
+        <v>805.4000000000001</v>
+      </c>
+      <c r="N11">
+        <v>200</v>
+      </c>
+      <c r="O11">
+        <v>200</v>
+      </c>
+      <c r="P11">
+        <v>400</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>15131.38</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>15131.38</v>
+      </c>
+      <c r="AF11">
+        <v>1550</v>
+      </c>
+      <c r="AG11">
+        <v>15131.38</v>
+      </c>
+      <c r="AH11">
+        <v>16454.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>24329.6</v>
-      </c>
-      <c r="D9">
-        <v>1035</v>
-      </c>
-      <c r="E9">
-        <v>2185</v>
-      </c>
-      <c r="F9">
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>17308.69</v>
+      </c>
+      <c r="E12">
+        <v>810</v>
+      </c>
+      <c r="F12">
+        <v>1710</v>
+      </c>
+      <c r="G12">
         <v>30</v>
       </c>
-      <c r="G9">
-        <v>3250</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>578.5</v>
-      </c>
-      <c r="K9">
-        <v>578.5</v>
-      </c>
-      <c r="L9">
-        <v>1157</v>
-      </c>
-      <c r="M9">
+      <c r="H12">
+        <v>2550</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>444.65</v>
+      </c>
+      <c r="L12">
+        <v>444.65</v>
+      </c>
+      <c r="M12">
+        <v>889.3000000000001</v>
+      </c>
+      <c r="N12">
         <v>200</v>
       </c>
-      <c r="N9">
+      <c r="O12">
         <v>200</v>
       </c>
-      <c r="O9">
+      <c r="P12">
         <v>400</v>
       </c>
-      <c r="P9">
-        <v>309.3</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>252.4650000000003</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>9500</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>1000</v>
-      </c>
-      <c r="Y9">
-        <v>11.5</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>1000</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>14465.835</v>
-      </c>
-      <c r="AD9">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" t="s">
+      <c r="Q12">
+        <v>941.46</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>14912.58</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>14912.58</v>
+      </c>
+      <c r="AF12">
+        <v>1740</v>
+      </c>
+      <c r="AG12">
+        <v>14912.58</v>
+      </c>
+      <c r="AH12">
+        <v>17308.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10">
-        <v>62304.52</v>
-      </c>
-      <c r="D10">
-        <v>2745</v>
-      </c>
-      <c r="E10">
-        <v>5795</v>
-      </c>
-      <c r="F10">
-        <v>90</v>
-      </c>
-      <c r="G10">
-        <v>8630</v>
-      </c>
-      <c r="H10">
-        <v>5491.25</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1514.55</v>
-      </c>
-      <c r="K10">
-        <v>1514.55</v>
-      </c>
-      <c r="L10">
-        <v>3029.1</v>
-      </c>
-      <c r="M10">
-        <v>600</v>
-      </c>
-      <c r="N10">
-        <v>600</v>
-      </c>
-      <c r="O10">
-        <v>1200</v>
-      </c>
-      <c r="P10">
-        <v>1612.17</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>273.1710000000004</v>
-      </c>
-      <c r="S10">
-        <v>3000</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>455.6</v>
-      </c>
-      <c r="X10">
-        <v>6300</v>
-      </c>
-      <c r="Y10">
-        <v>144.94</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>53968.91899999999</v>
-      </c>
-      <c r="AD10">
-        <v>5885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>129923.18</v>
-      </c>
-      <c r="D11">
-        <v>5827.5</v>
-      </c>
-      <c r="E11">
-        <v>12302.5</v>
-      </c>
-      <c r="F11">
-        <v>210</v>
-      </c>
-      <c r="G11">
-        <v>18340</v>
-      </c>
-      <c r="H11">
-        <v>9736.58</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>3248.2525</v>
-      </c>
-      <c r="K11">
-        <v>3248.2625</v>
-      </c>
-      <c r="L11">
-        <v>6496.515</v>
-      </c>
-      <c r="M11">
-        <v>1400</v>
-      </c>
-      <c r="N11">
-        <v>1400</v>
-      </c>
-      <c r="O11">
-        <v>2800</v>
-      </c>
-      <c r="P11">
-        <v>2698.92</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>409.2007500000001</v>
-      </c>
-      <c r="S11">
-        <v>3000</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>153.36</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>6200</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>109649.36675</v>
-      </c>
-      <c r="AD11">
-        <v>12512.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B12">
-        <v>99077.39000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" t="s">
+      <c r="B15">
+        <v>74439.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" t="s">
         <v>41</v>
-      </c>
-      <c r="B13">
-        <v>150147.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" t="s">
-        <v>44</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1799,87 +1989,87 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17">
-        <v>230000</v>
+        <v>91447.82000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18">
-        <v>182896.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19">
-        <v>85656.84999999999</v>
+        <v>41454.08</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B20">
-        <v>260004.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B21">
-        <v>54828.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B22">
-        <v>24329.6</v>
+        <v>17308.69</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23">
-        <v>62304.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24">
-        <v>129923.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25">
-        <v>9507.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B26">
-        <v>13897.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1887,15 +2077,15 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>6852.5</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1903,87 +2093,87 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30">
-        <v>2880</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B31">
-        <v>7452.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B32">
-        <v>5285</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33">
-        <v>5760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B34">
-        <v>5600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B35">
-        <v>2215</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B36">
-        <v>5885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B37">
-        <v>12512.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B38">
-        <v>2457.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B39">
-        <v>3750.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1991,15 +2181,15 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2007,87 +2197,87 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B43">
-        <v>2500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B44">
-        <v>3932.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B45">
-        <v>2375</v>
+        <v>1027.7</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B46">
-        <v>3250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B47">
-        <v>1453.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B48">
-        <v>578.5</v>
+        <v>444.65</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B49">
-        <v>1514.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B50">
-        <v>3248.2625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B51">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B52">
-        <v>1400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2095,15 +2285,15 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2111,23 +2301,23 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B56">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B57">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B58">
         <v>400</v>
@@ -2135,23 +2325,23 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B59">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B60">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B61">
         <v>200</v>
@@ -2159,90 +2349,106 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B62">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B63">
-        <v>1400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66">
+        <v>134.19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>92</v>
       </c>
-      <c r="B64">
-        <v>111.82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="D67">
+        <v>2232.784500000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>93</v>
       </c>
-      <c r="C65">
-        <v>891.26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="D68">
+        <v>28030</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
         <v>94</v>
       </c>
-      <c r="C66">
-        <v>139761.771</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>95</v>
       </c>
-      <c r="C67">
-        <v>104160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="D70">
+        <v>9924.700000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>96</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="D71">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>97</v>
       </c>
-      <c r="C69">
-        <v>50121.065</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="D72">
+        <v>941.46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
         <v>98</v>
       </c>
-      <c r="C70">
-        <v>13600</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" t="s">
-        <v>101</v>
+      <c r="D73">
+        <v>2915.91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74">
+        <v>156031.8655</v>
       </c>
     </row>
   </sheetData>

--- a/payroll_gross.xlsx
+++ b/payroll_gross.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="151">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -118,18 +118,36 @@
     <t>GROSS</t>
   </si>
   <si>
-    <t>EMD DEPARTMENT</t>
-  </si>
-  <si>
-    <t>ENGINEERING DEPARTMENT - CAVITE</t>
+    <t>ACCOUNTING DEPARTMENT</t>
+  </si>
+  <si>
+    <t>ADMIN DEPARTMENT</t>
+  </si>
+  <si>
+    <t>FINANCE DEPARTMENT</t>
   </si>
   <si>
     <t>HR DEPARTMENT</t>
   </si>
   <si>
+    <t>LEGAL DEPARTMENT</t>
+  </si>
+  <si>
+    <t>OFFICE OF THE PRESIDENT</t>
+  </si>
+  <si>
     <t>PERMITS &amp; LICENSES DEPARTMENT</t>
   </si>
   <si>
+    <t>PLANNING &amp; DESIGN DEPARTMENT</t>
+  </si>
+  <si>
+    <t>SALES &amp; LOAN DOCUMENTATION</t>
+  </si>
+  <si>
+    <t>TREASURY DEPARTMENT</t>
+  </si>
+  <si>
     <t>SALARIES &amp; WAGES - ACCOUNTING DEPARTMENT</t>
   </si>
   <si>
@@ -286,12 +304,48 @@
     <t>PAG-IBIG CONTRIBUTIONS - TREASURY DEPARTMENT</t>
   </si>
   <si>
+    <t>13 MONTH FEE LESS - ACCOUNTING DEPARTMENT</t>
+  </si>
+  <si>
+    <t>13 MONTH FEE LESS - ADMIN DEPARTMENT</t>
+  </si>
+  <si>
+    <t>13 MONTH FEE LESS - EMD DEPARTMENT</t>
+  </si>
+  <si>
+    <t>13 MONTH FEE LESS - ENGINEERING DEPARTMENT - ANTIPOLO</t>
+  </si>
+  <si>
+    <t>13 MONTH FEE LESS - ENGINEERING DEPARTMENT - CAVITE</t>
+  </si>
+  <si>
+    <t>13 MONTH FEE LESS - FINANCE DEPARTMENT</t>
+  </si>
+  <si>
+    <t>13 MONTH FEE LESS - HR DEPARTMENT</t>
+  </si>
+  <si>
+    <t>13 MONTH FEE LESS - LEGAL DEPARTMENT</t>
+  </si>
+  <si>
+    <t>13 MONTH FEE LESS - OFFICE OF THE PRESIDENT</t>
+  </si>
+  <si>
+    <t>13 MONTH FEE LESS - PERMITS &amp; LICENSES DEPARTMENT</t>
+  </si>
+  <si>
+    <t>13 MONTH FEE LESS - PLANNING &amp; DESIGN DEPARTMENT</t>
+  </si>
+  <si>
+    <t>13 MONTH FEE LESS - SALES &amp; LOAN DOCUMENTATION</t>
+  </si>
+  <si>
+    <t>13 MONTH FEE LESS - TREASURY DEPARTMENT</t>
+  </si>
+  <si>
     <t>13th MONTH - ADD</t>
   </si>
   <si>
-    <t>13th MONTH - LESS</t>
-  </si>
-  <si>
     <t>WITHOLDING TAXES PAYABLE- COMPENSATION</t>
   </si>
   <si>
@@ -310,40 +364,109 @@
     <t>PAG-IBIG SALARY LOAN PAYABLE</t>
   </si>
   <si>
-    <t>MARTEJA, GEORGE DELA TORRE</t>
-  </si>
-  <si>
-    <t>ELISTON PLACE</t>
-  </si>
-  <si>
-    <t>LIPIAN, MA. CERLITA</t>
-  </si>
-  <si>
-    <t>MALACAS, JERICO CRUZ</t>
-  </si>
-  <si>
-    <t>SAMBAJON, MA. CRISTINA FAUNI</t>
-  </si>
-  <si>
-    <t>SILONG, JIRALP VALDEZ</t>
-  </si>
-  <si>
-    <t>CORONEJO, JOSEPH BUENO</t>
-  </si>
-  <si>
-    <t>DELA PASION, RECEL DELIMA</t>
-  </si>
-  <si>
-    <t>EVANGELISTA, JOSHUA CALINISAN</t>
-  </si>
-  <si>
-    <t>HERMO, GRAZELENE ANNE</t>
-  </si>
-  <si>
-    <t>REQUISO, MERIAM LICAYAN</t>
-  </si>
-  <si>
-    <t>BERNADIT, SERAPIO MAHAYAG</t>
+    <t>ASUNCION, SHERILYN DE GUZMAN</t>
+  </si>
+  <si>
+    <t>BORJA, MA. ELIZA DELIS</t>
+  </si>
+  <si>
+    <t>COLUMNA, ALMA ZAPATA</t>
+  </si>
+  <si>
+    <t>DOMIQUIL, CONSTANCIO NAVARRO</t>
+  </si>
+  <si>
+    <t>DUNGQUE, MARIA RAYLEN AGANG</t>
+  </si>
+  <si>
+    <t>MENDEZ, REDEEMER DE LEON</t>
+  </si>
+  <si>
+    <t>SAN LUIS, MARIBEL MANAOG</t>
+  </si>
+  <si>
+    <t>VISMONTE, MA. CRISTINA BARBECHO</t>
+  </si>
+  <si>
+    <t>DELOS REYES, ANGELICO ZENON MONTEMAYOR</t>
+  </si>
+  <si>
+    <t>SIBUG, PATRIZIA LOU GUINTO</t>
+  </si>
+  <si>
+    <t>GENERAL COMMON EXPENSE</t>
+  </si>
+  <si>
+    <t>DE JOSE, GLEDA GICANGAO</t>
+  </si>
+  <si>
+    <t>FERNANDEZ, MARIBETH ANTIQUINA</t>
+  </si>
+  <si>
+    <t>LEMON, LYRA NICANOR</t>
+  </si>
+  <si>
+    <t>MANAPAT, MYTRICIA LAIZEL FULGUERAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANITAS, SYRA SHIN </t>
+  </si>
+  <si>
+    <t>ABRIAM, AGNES BURGOS</t>
+  </si>
+  <si>
+    <t>DIVINA, MICHELLE COBICO</t>
+  </si>
+  <si>
+    <t>MAKIRAMDAM, MILYN PANGANIBAN</t>
+  </si>
+  <si>
+    <t>SEBESON, PAULA MAE DUSONG</t>
+  </si>
+  <si>
+    <t>YARTE, JEFFREY CECILIO</t>
+  </si>
+  <si>
+    <t>LIM, JENNIFER BONGAT</t>
+  </si>
+  <si>
+    <t>FLORESTA, GLEN</t>
+  </si>
+  <si>
+    <t>MARRAY, ALYSSA JORNACION</t>
+  </si>
+  <si>
+    <t>BOLANTE, IVAN MENDOZA</t>
+  </si>
+  <si>
+    <t>BONGAT, JEFFERSON SY</t>
+  </si>
+  <si>
+    <t>BALDERAS, APRIL CLARISSE ALLEQUIR</t>
+  </si>
+  <si>
+    <t>MOYANO, MARY LAYKA PEDERIO</t>
+  </si>
+  <si>
+    <t>MEDALLA, RIZZA ALMOETE</t>
+  </si>
+  <si>
+    <t>TABOTABO, MARK STEPHEN PAMINTUAN</t>
+  </si>
+  <si>
+    <t>BALOLOY, SARAH HIZO</t>
+  </si>
+  <si>
+    <t>CAPILLAN, MURIEL TUANQUIN</t>
+  </si>
+  <si>
+    <t>CUARTEROS, ROCHELLE SARAH MERILLES</t>
+  </si>
+  <si>
+    <t>NATIVIDAD, LORA RUTH FRONDA</t>
+  </si>
+  <si>
+    <t>PELAYO, LORENA EDEM</t>
   </si>
 </sst>
 </file>
@@ -701,7 +824,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH74"/>
+  <dimension ref="A1:AH120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -816,40 +939,40 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D2">
-        <v>11656.68</v>
+        <v>16895.14</v>
       </c>
       <c r="E2">
-        <v>630</v>
+        <v>877.5</v>
       </c>
       <c r="F2">
-        <v>1330</v>
+        <v>1852.5</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>1970</v>
+        <v>2760</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1799.65</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>350</v>
+        <v>482.3</v>
       </c>
       <c r="L2">
-        <v>350</v>
+        <v>482.3</v>
       </c>
       <c r="M2">
-        <v>700</v>
+        <v>964.6</v>
       </c>
       <c r="N2">
         <v>200</v>
@@ -861,7 +984,7 @@
         <v>400</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1717.05</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -876,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>44.73</v>
+        <v>76.34</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -885,13 +1008,13 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>10431.95</v>
+        <v>11742.3</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>4070.919999999999</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>52.91</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -903,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>10431.95</v>
+        <v>15866.13</v>
       </c>
       <c r="AF2">
-        <v>1340</v>
+        <v>1882.5</v>
       </c>
       <c r="AG2">
-        <v>10431.95</v>
+        <v>15866.13</v>
       </c>
       <c r="AH2">
-        <v>11656.68</v>
+        <v>21018.97</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -920,40 +1043,40 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>5453.559999999999</v>
+        <v>24196.35</v>
       </c>
       <c r="E3">
-        <v>630</v>
+        <v>1012.5</v>
       </c>
       <c r="F3">
-        <v>1330</v>
+        <v>2137.5</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>1970</v>
+        <v>3180</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1845.8</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>350</v>
+        <v>563</v>
       </c>
       <c r="L3">
-        <v>350</v>
+        <v>563</v>
       </c>
       <c r="M3">
-        <v>700</v>
+        <v>1126</v>
       </c>
       <c r="N3">
         <v>200</v>
@@ -965,13 +1088,13 @@
         <v>400</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1417</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>238.1774999999998</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -980,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>44.73</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -989,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>5408.83</v>
+        <v>18919.8725</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>43.71</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1007,16 +1130,16 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>5408.83</v>
+        <v>22763.5825</v>
       </c>
       <c r="AF3">
-        <v>1340</v>
+        <v>2167.5</v>
       </c>
       <c r="AG3">
-        <v>5408.83</v>
+        <v>22763.5825</v>
       </c>
       <c r="AH3">
-        <v>5453.559999999999</v>
+        <v>28040.06</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -1024,25 +1147,25 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="D4">
-        <v>30280.88</v>
+        <v>19850.46</v>
       </c>
       <c r="E4">
-        <v>1327.5</v>
+        <v>787.5</v>
       </c>
       <c r="F4">
-        <v>2802.5</v>
+        <v>1662.5</v>
       </c>
       <c r="G4">
         <v>30</v>
       </c>
       <c r="H4">
-        <v>4160</v>
+        <v>2480</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1051,22 +1174,22 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>740</v>
+        <v>437.5</v>
       </c>
       <c r="L4">
-        <v>740</v>
+        <v>437.5</v>
       </c>
       <c r="M4">
-        <v>1480</v>
+        <v>875</v>
       </c>
       <c r="N4">
         <v>200</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1075,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1077.057</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -1087,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>111.82</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>26936.323</v>
+        <v>18537.28</v>
       </c>
       <c r="Z4">
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>331.28</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1111,16 +1234,16 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>41667.603</v>
+        <v>18537.28</v>
       </c>
       <c r="AF4">
-        <v>2832.5</v>
+        <v>1692.5</v>
       </c>
       <c r="AG4">
-        <v>12205.043</v>
+        <v>18537.28</v>
       </c>
       <c r="AH4">
-        <v>45012.16</v>
+        <v>19850.46</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -1128,40 +1251,40 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="D5">
-        <v>12317.58</v>
+        <v>22293.21</v>
       </c>
       <c r="E5">
-        <v>630</v>
+        <v>900</v>
       </c>
       <c r="F5">
-        <v>1330</v>
+        <v>1900</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>1970</v>
+        <v>2830</v>
       </c>
       <c r="I5">
-        <v>392.23</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L5">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M5">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N5">
         <v>200</v>
@@ -1188,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>44.73</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1197,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>10700.62</v>
+        <v>20693.21</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1215,57 +1338,57 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>10700.62</v>
+        <v>20693.21</v>
       </c>
       <c r="AF5">
-        <v>1340</v>
+        <v>1930</v>
       </c>
       <c r="AG5">
-        <v>10700.62</v>
+        <v>20693.21</v>
       </c>
       <c r="AH5">
-        <v>12317.58</v>
+        <v>22293.21</v>
       </c>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="D6">
-        <v>17516.92</v>
+        <v>15842.23</v>
       </c>
       <c r="E6">
-        <v>810</v>
+        <v>855</v>
       </c>
       <c r="F6">
-        <v>1710</v>
+        <v>1805</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
       <c r="H6">
-        <v>2550</v>
+        <v>2690</v>
       </c>
       <c r="I6">
-        <v>1661.22</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="L6">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="M6">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="N6">
         <v>200</v>
@@ -1292,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>91.05</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1301,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>14395.7</v>
+        <v>14221.18</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1319,16 +1442,16 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>14395.7</v>
+        <v>14221.18</v>
       </c>
       <c r="AF6">
-        <v>1740</v>
+        <v>1835</v>
       </c>
       <c r="AG6">
-        <v>14395.7</v>
+        <v>14221.18</v>
       </c>
       <c r="AH6">
-        <v>17516.92</v>
+        <v>15842.23</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1336,40 +1459,40 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="D7">
-        <v>22432.44</v>
+        <v>34741.21</v>
       </c>
       <c r="E7">
-        <v>990</v>
+        <v>1350</v>
       </c>
       <c r="F7">
-        <v>2090</v>
+        <v>2850</v>
       </c>
       <c r="G7">
         <v>30</v>
       </c>
       <c r="H7">
-        <v>3110</v>
+        <v>4230</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1845.8</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>550</v>
+        <v>877.5</v>
       </c>
       <c r="L7">
-        <v>550</v>
+        <v>877.5</v>
       </c>
       <c r="M7">
-        <v>1100</v>
+        <v>1755</v>
       </c>
       <c r="N7">
         <v>200</v>
@@ -1387,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1722.1065</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1396,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1405,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>20692.44</v>
+        <v>28673.12349999999</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>239.26</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -1423,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>20692.44</v>
+        <v>41312.3835</v>
       </c>
       <c r="AF7">
-        <v>2120</v>
+        <v>2880</v>
       </c>
       <c r="AG7">
-        <v>20692.44</v>
+        <v>41312.3835</v>
       </c>
       <c r="AH7">
-        <v>22432.44</v>
+        <v>47380.47</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1440,25 +1563,25 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D8">
-        <v>28480.85</v>
+        <v>22863.93</v>
       </c>
       <c r="E8">
-        <v>1260</v>
+        <v>967.5</v>
       </c>
       <c r="F8">
-        <v>2660</v>
+        <v>2042.5</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
       <c r="H8">
-        <v>3950</v>
+        <v>3040</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1467,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>700</v>
+        <v>535.3000000000001</v>
       </c>
       <c r="L8">
-        <v>700</v>
+        <v>535.3000000000001</v>
       </c>
       <c r="M8">
-        <v>1400</v>
+        <v>1070.6</v>
       </c>
       <c r="N8">
         <v>200</v>
@@ -1485,16 +1608,16 @@
         <v>400</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>3680.46</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>823.1775000000004</v>
+        <v>49.21949999999961</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1509,13 +1632,13 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>25497.6725</v>
+        <v>14431.4505</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>58.67</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1527,16 +1650,16 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>25497.6725</v>
+        <v>19590.1205</v>
       </c>
       <c r="AF8">
-        <v>2690</v>
+        <v>2072.5</v>
       </c>
       <c r="AG8">
-        <v>25497.6725</v>
+        <v>19590.1205</v>
       </c>
       <c r="AH8">
-        <v>28480.85</v>
+        <v>28022.59999999999</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1544,52 +1667,52 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D9">
-        <v>14935.86</v>
+        <v>15284.66</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1384.35</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>379.25</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>379.25</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>758.5</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>398.91</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1598,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="U9">
-        <v>2915.91</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>72.7</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1613,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>12019.95</v>
+        <v>10174.45</v>
       </c>
       <c r="Z9">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>181.75</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1631,57 +1754,57 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>20101.7</v>
+        <v>10174.45</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1455</v>
       </c>
       <c r="AG9">
-        <v>3938.200000000001</v>
+        <v>10174.45</v>
       </c>
       <c r="AH9">
-        <v>23017.61</v>
+        <v>15284.66</v>
       </c>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D10">
-        <v>25000</v>
+        <v>15245.67</v>
       </c>
       <c r="E10">
-        <v>1125</v>
+        <v>630</v>
       </c>
       <c r="F10">
-        <v>2375</v>
+        <v>1330</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>3530</v>
+        <v>1970</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1292.06</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>625</v>
+        <v>352</v>
       </c>
       <c r="L10">
-        <v>625</v>
+        <v>352</v>
       </c>
       <c r="M10">
-        <v>1250</v>
+        <v>704</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -1699,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>332.5500000000005</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1708,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>44.98</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1717,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>22717.45</v>
+        <v>12726.63</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1735,42 +1858,42 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>22717.45</v>
+        <v>12726.63</v>
       </c>
       <c r="AF10">
-        <v>2405</v>
+        <v>1340</v>
       </c>
       <c r="AG10">
-        <v>22717.45</v>
+        <v>12726.63</v>
       </c>
       <c r="AH10">
-        <v>25000</v>
+        <v>15245.67</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D11">
-        <v>16454.08</v>
+        <v>24982.37</v>
       </c>
       <c r="E11">
-        <v>720</v>
+        <v>1102.5</v>
       </c>
       <c r="F11">
-        <v>1520</v>
+        <v>2327.5</v>
       </c>
       <c r="G11">
         <v>30</v>
       </c>
       <c r="H11">
-        <v>2270</v>
+        <v>3460</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1779,13 +1902,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>402.7</v>
+        <v>617.75</v>
       </c>
       <c r="L11">
-        <v>402.7</v>
+        <v>617.75</v>
       </c>
       <c r="M11">
-        <v>805.4000000000001</v>
+        <v>1235.5</v>
       </c>
       <c r="N11">
         <v>200</v>
@@ -1797,13 +1920,13 @@
         <v>400</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2412.82</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>334.3679999999998</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1821,16 +1944,16 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>15131.38</v>
+        <v>20314.932</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>32.21</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="AC11">
         <v>0</v>
@@ -1839,57 +1962,57 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>15131.38</v>
+        <v>25147.142</v>
       </c>
       <c r="AF11">
-        <v>1550</v>
+        <v>2357.5</v>
       </c>
       <c r="AG11">
-        <v>15131.38</v>
+        <v>25147.142</v>
       </c>
       <c r="AH11">
-        <v>16454.08</v>
+        <v>29814.58</v>
       </c>
     </row>
     <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="D12">
-        <v>17308.69</v>
+        <v>13128.68</v>
       </c>
       <c r="E12">
-        <v>810</v>
+        <v>652.5</v>
       </c>
       <c r="F12">
-        <v>1710</v>
+        <v>1377.5</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>2550</v>
+        <v>2040</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1338.2</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>444.65</v>
+        <v>359.8</v>
       </c>
       <c r="L12">
-        <v>444.65</v>
+        <v>359.8</v>
       </c>
       <c r="M12">
-        <v>889.3000000000001</v>
+        <v>719.6</v>
       </c>
       <c r="N12">
         <v>200</v>
@@ -1901,7 +2024,7 @@
         <v>400</v>
       </c>
       <c r="Q12">
-        <v>941.46</v>
+        <v>396.58</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1916,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>22.99</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1925,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>14912.58</v>
+        <v>10158.61</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -1943,325 +2066,2533 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>14912.58</v>
+        <v>10158.61</v>
       </c>
       <c r="AF12">
-        <v>1740</v>
+        <v>1387.5</v>
       </c>
       <c r="AG12">
-        <v>14912.58</v>
+        <v>10158.61</v>
       </c>
       <c r="AH12">
-        <v>17308.69</v>
+        <v>13128.68</v>
       </c>
     </row>
     <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13">
+        <v>23901.44</v>
+      </c>
+      <c r="E13">
+        <v>1125</v>
+      </c>
+      <c r="F13">
+        <v>2375</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>3530</v>
+      </c>
+      <c r="I13">
+        <v>1845.8</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>628.4250000000001</v>
+      </c>
+      <c r="L13">
+        <v>628.4250000000001</v>
+      </c>
+      <c r="M13">
+        <v>1256.85</v>
+      </c>
+      <c r="N13">
+        <v>200</v>
+      </c>
+      <c r="O13">
+        <v>200</v>
+      </c>
+      <c r="P13">
+        <v>400</v>
+      </c>
+      <c r="Q13">
+        <v>920.61</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>167.2522499999999</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>120.47</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>18893.88275</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>18893.88275</v>
+      </c>
+      <c r="AF13">
+        <v>2405</v>
+      </c>
+      <c r="AG13">
+        <v>18893.88275</v>
+      </c>
+      <c r="AH13">
+        <v>23901.44</v>
       </c>
     </row>
     <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14">
+        <v>230000</v>
+      </c>
+      <c r="E14">
+        <v>1350</v>
+      </c>
+      <c r="F14">
+        <v>2850</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>4230</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>2500</v>
+      </c>
+      <c r="L14">
+        <v>2500</v>
+      </c>
+      <c r="M14">
+        <v>5000</v>
+      </c>
+      <c r="N14">
+        <v>200</v>
+      </c>
+      <c r="O14">
+        <v>200</v>
+      </c>
+      <c r="P14">
+        <v>400</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>51326.7</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>174623.3</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>174623.3</v>
+      </c>
+      <c r="AF14">
+        <v>2880</v>
+      </c>
+      <c r="AG14">
+        <v>174623.3</v>
+      </c>
+      <c r="AH14">
+        <v>230000</v>
       </c>
     </row>
     <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>74439.98</v>
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15">
+        <v>125000</v>
+      </c>
+      <c r="E15">
+        <v>1350</v>
+      </c>
+      <c r="F15">
+        <v>2850</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>4230</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2500</v>
+      </c>
+      <c r="L15">
+        <v>2500</v>
+      </c>
+      <c r="M15">
+        <v>5000</v>
+      </c>
+      <c r="N15">
+        <v>200</v>
+      </c>
+      <c r="O15">
+        <v>200</v>
+      </c>
+      <c r="P15">
+        <v>400</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>22112.55</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>98837.45</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>98837.45</v>
+      </c>
+      <c r="AF15">
+        <v>2880</v>
+      </c>
+      <c r="AG15">
+        <v>98837.45</v>
+      </c>
+      <c r="AH15">
+        <v>125000</v>
       </c>
     </row>
     <row r="16" spans="1:34">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16">
+        <v>17708.77</v>
+      </c>
+      <c r="E16">
+        <v>787.5</v>
+      </c>
+      <c r="F16">
+        <v>1662.5</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>2480</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>432.9</v>
+      </c>
+      <c r="L16">
+        <v>432.9</v>
+      </c>
+      <c r="M16">
+        <v>865.8000000000001</v>
+      </c>
+      <c r="N16">
+        <v>200</v>
+      </c>
+      <c r="O16">
+        <v>200</v>
+      </c>
+      <c r="P16">
+        <v>400</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>16288.37</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>16288.37</v>
+      </c>
+      <c r="AF16">
+        <v>1692.5</v>
+      </c>
+      <c r="AG16">
+        <v>16288.37</v>
+      </c>
+      <c r="AH16">
+        <v>17708.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17">
+        <v>40187.41</v>
+      </c>
+      <c r="E17">
+        <v>1350</v>
+      </c>
+      <c r="F17">
+        <v>2850</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>4230</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1000</v>
+      </c>
+      <c r="L17">
+        <v>1000</v>
+      </c>
+      <c r="M17">
+        <v>2000</v>
+      </c>
+      <c r="N17">
+        <v>200</v>
+      </c>
+      <c r="O17">
+        <v>200</v>
+      </c>
+      <c r="P17">
+        <v>400</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>2735.882000000001</v>
+      </c>
+      <c r="T17">
+        <v>4600</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>30301.528</v>
+      </c>
+      <c r="Z17">
+        <v>20000</v>
+      </c>
+      <c r="AA17">
+        <v>230.06</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>50531.588</v>
+      </c>
+      <c r="AF17">
+        <v>2880</v>
+      </c>
+      <c r="AG17">
+        <v>50531.588</v>
+      </c>
+      <c r="AH17">
+        <v>60417.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18">
+        <v>19482.8</v>
+      </c>
+      <c r="E18">
+        <v>1125</v>
+      </c>
+      <c r="F18">
+        <v>2375</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>3530</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>625</v>
+      </c>
+      <c r="L18">
+        <v>625</v>
+      </c>
+      <c r="M18">
+        <v>1250</v>
+      </c>
+      <c r="N18">
+        <v>200</v>
+      </c>
+      <c r="O18">
+        <v>200</v>
+      </c>
+      <c r="P18">
+        <v>400</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>6.66</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>17526.14</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>17526.14</v>
+      </c>
+      <c r="AF18">
+        <v>2405</v>
+      </c>
+      <c r="AG18">
+        <v>17526.14</v>
+      </c>
+      <c r="AH18">
+        <v>19482.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19">
+        <v>66174.04999999999</v>
+      </c>
+      <c r="E19">
+        <v>1350</v>
+      </c>
+      <c r="F19">
+        <v>2850</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>4230</v>
+      </c>
+      <c r="I19">
+        <v>1845.8</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1750</v>
+      </c>
+      <c r="L19">
+        <v>1750</v>
+      </c>
+      <c r="M19">
+        <v>3500</v>
+      </c>
+      <c r="N19">
+        <v>200</v>
+      </c>
+      <c r="O19">
+        <v>200</v>
+      </c>
+      <c r="P19">
+        <v>400</v>
+      </c>
+      <c r="Q19">
+        <v>3826.05</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>7783.209999999998</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>18157.16</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>31261.82999999998</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>2000</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>33261.82999999998</v>
+      </c>
+      <c r="AF19">
+        <v>2880</v>
+      </c>
+      <c r="AG19">
+        <v>33261.82999999998</v>
+      </c>
+      <c r="AH19">
+        <v>68174.04999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20">
+        <v>230000</v>
+      </c>
+      <c r="E20">
+        <v>1350</v>
+      </c>
+      <c r="F20">
+        <v>2850</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>4230</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2500</v>
+      </c>
+      <c r="L20">
+        <v>2500</v>
+      </c>
+      <c r="M20">
+        <v>5000</v>
+      </c>
+      <c r="N20">
+        <v>200</v>
+      </c>
+      <c r="O20">
+        <v>200</v>
+      </c>
+      <c r="P20">
+        <v>400</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>51326.7</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>174623.3</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>174623.3</v>
+      </c>
+      <c r="AF20">
+        <v>2880</v>
+      </c>
+      <c r="AG20">
+        <v>174623.3</v>
+      </c>
+      <c r="AH20">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21">
+        <v>30004.79</v>
+      </c>
+      <c r="E21">
+        <v>1350</v>
+      </c>
+      <c r="F21">
+        <v>2850</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>4230</v>
+      </c>
+      <c r="I21">
+        <v>1523.08</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>750</v>
+      </c>
+      <c r="L21">
+        <v>750</v>
+      </c>
+      <c r="M21">
+        <v>1500</v>
+      </c>
+      <c r="N21">
+        <v>200</v>
+      </c>
+      <c r="O21">
+        <v>200</v>
+      </c>
+      <c r="P21">
+        <v>400</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1030.7685</v>
+      </c>
+      <c r="T21">
+        <v>2000</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>23150.9415</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>23150.9415</v>
+      </c>
+      <c r="AF21">
+        <v>2880</v>
+      </c>
+      <c r="AG21">
+        <v>23150.9415</v>
+      </c>
+      <c r="AH21">
+        <v>30004.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22">
+        <v>14378.57</v>
+      </c>
+      <c r="E22">
+        <v>720</v>
+      </c>
+      <c r="F22">
+        <v>1520</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>2270</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>400</v>
+      </c>
+      <c r="L22">
+        <v>400</v>
+      </c>
+      <c r="M22">
+        <v>800</v>
+      </c>
+      <c r="N22">
+        <v>200</v>
+      </c>
+      <c r="O22">
+        <v>200</v>
+      </c>
+      <c r="P22">
+        <v>400</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>230.03</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>12828.54</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>12828.54</v>
+      </c>
+      <c r="AF22">
+        <v>1550</v>
+      </c>
+      <c r="AG22">
+        <v>12828.54</v>
+      </c>
+      <c r="AH22">
+        <v>14378.57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23">
+        <v>20200.12</v>
+      </c>
+      <c r="E23">
+        <v>945</v>
+      </c>
+      <c r="F23">
+        <v>1995</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>2970</v>
+      </c>
+      <c r="I23">
+        <v>1845.8</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>528.5</v>
+      </c>
+      <c r="L23">
+        <v>528.5</v>
+      </c>
+      <c r="M23">
+        <v>1057</v>
+      </c>
+      <c r="N23">
+        <v>200</v>
+      </c>
+      <c r="O23">
+        <v>200</v>
+      </c>
+      <c r="P23">
+        <v>400</v>
+      </c>
+      <c r="Q23">
+        <v>1611.71</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>2000</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>13069.11</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>13069.11</v>
+      </c>
+      <c r="AF23">
+        <v>2025</v>
+      </c>
+      <c r="AG23">
+        <v>13069.11</v>
+      </c>
+      <c r="AH23">
+        <v>20200.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24">
+        <v>20250.25</v>
+      </c>
+      <c r="E24">
+        <v>945</v>
+      </c>
+      <c r="F24">
+        <v>1995</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>2970</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>525</v>
+      </c>
+      <c r="L24">
+        <v>525</v>
+      </c>
+      <c r="M24">
+        <v>1050</v>
+      </c>
+      <c r="N24">
+        <v>200</v>
+      </c>
+      <c r="O24">
+        <v>200</v>
+      </c>
+      <c r="P24">
+        <v>400</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>18580.25</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>1000</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>19580.25</v>
+      </c>
+      <c r="AF24">
+        <v>2025</v>
+      </c>
+      <c r="AG24">
+        <v>19580.25</v>
+      </c>
+      <c r="AH24">
+        <v>21250.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25">
+        <v>24329.6</v>
+      </c>
+      <c r="E25">
+        <v>1035</v>
+      </c>
+      <c r="F25">
+        <v>2185</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>3250</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>578.5</v>
+      </c>
+      <c r="L25">
+        <v>578.5</v>
+      </c>
+      <c r="M25">
+        <v>1157</v>
+      </c>
+      <c r="N25">
+        <v>200</v>
+      </c>
+      <c r="O25">
+        <v>200</v>
+      </c>
+      <c r="P25">
+        <v>400</v>
+      </c>
+      <c r="Q25">
+        <v>309.3</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>252.4650000000003</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>9500</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>12454.335</v>
+      </c>
+      <c r="Z25">
+        <v>1000</v>
+      </c>
+      <c r="AA25">
+        <v>11.5</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>1000</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>14465.835</v>
+      </c>
+      <c r="AF25">
+        <v>2215</v>
+      </c>
+      <c r="AG25">
+        <v>14465.835</v>
+      </c>
+      <c r="AH25">
+        <v>26341.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B17">
-        <v>91447.82000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26">
+        <v>23101.36</v>
+      </c>
+      <c r="E26">
+        <v>990</v>
+      </c>
+      <c r="F26">
+        <v>2090</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>3110</v>
+      </c>
+      <c r="I26">
+        <v>1799.65</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>545.5500000000001</v>
+      </c>
+      <c r="L26">
+        <v>545.5500000000001</v>
+      </c>
+      <c r="M26">
+        <v>1091.1</v>
+      </c>
+      <c r="N26">
+        <v>200</v>
+      </c>
+      <c r="O26">
+        <v>200</v>
+      </c>
+      <c r="P26">
+        <v>400</v>
+      </c>
+      <c r="Q26">
+        <v>1293.73</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>79.92150000000019</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>455.6</v>
+      </c>
+      <c r="Y26">
+        <v>18648.1085</v>
+      </c>
+      <c r="Z26">
+        <v>6300</v>
+      </c>
+      <c r="AA26">
+        <v>144.94</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>25093.0485</v>
+      </c>
+      <c r="AF26">
+        <v>2120</v>
+      </c>
+      <c r="AG26">
+        <v>25093.0485</v>
+      </c>
+      <c r="AH26">
+        <v>29546.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27">
+        <v>15207.83</v>
+      </c>
+      <c r="E27">
+        <v>675</v>
+      </c>
+      <c r="F27">
+        <v>1425</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>2130</v>
+      </c>
+      <c r="I27">
+        <v>1845.8</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>375</v>
+      </c>
+      <c r="L27">
+        <v>375</v>
+      </c>
+      <c r="M27">
+        <v>750</v>
+      </c>
+      <c r="N27">
+        <v>200</v>
+      </c>
+      <c r="O27">
+        <v>200</v>
+      </c>
+      <c r="P27">
+        <v>400</v>
+      </c>
+      <c r="Q27">
+        <v>318.44</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>11793.59</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>11793.59</v>
+      </c>
+      <c r="AF27">
+        <v>1455</v>
+      </c>
+      <c r="AG27">
+        <v>11793.59</v>
+      </c>
+      <c r="AH27">
+        <v>15207.83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28">
+        <v>23995.33</v>
+      </c>
+      <c r="E28">
+        <v>1080</v>
+      </c>
+      <c r="F28">
+        <v>2280</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>3390</v>
+      </c>
+      <c r="I28">
+        <v>1845.8</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>594</v>
+      </c>
+      <c r="L28">
+        <v>594</v>
+      </c>
+      <c r="M28">
+        <v>1188</v>
+      </c>
+      <c r="N28">
+        <v>200</v>
+      </c>
+      <c r="O28">
+        <v>200</v>
+      </c>
+      <c r="P28">
+        <v>400</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>193.2495000000003</v>
+      </c>
+      <c r="T28">
+        <v>3000</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>17082.2805</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>17082.2805</v>
+      </c>
+      <c r="AF28">
+        <v>2310</v>
+      </c>
+      <c r="AG28">
+        <v>17082.2805</v>
+      </c>
+      <c r="AH28">
+        <v>23995.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29">
+        <v>17084.42</v>
+      </c>
+      <c r="E29">
+        <v>742.5</v>
+      </c>
+      <c r="F29">
+        <v>1567.5</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+      <c r="H29">
+        <v>2340</v>
+      </c>
+      <c r="I29">
+        <v>1430.49</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>418.225</v>
+      </c>
+      <c r="L29">
+        <v>418.225</v>
+      </c>
+      <c r="M29">
+        <v>836.45</v>
+      </c>
+      <c r="N29">
+        <v>200</v>
+      </c>
+      <c r="O29">
+        <v>200</v>
+      </c>
+      <c r="P29">
+        <v>400</v>
+      </c>
+      <c r="Q29">
+        <v>950</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>1000</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>12343.205</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>12343.205</v>
+      </c>
+      <c r="AF29">
+        <v>1597.5</v>
+      </c>
+      <c r="AG29">
+        <v>12343.205</v>
+      </c>
+      <c r="AH29">
+        <v>17084.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30">
+        <v>18020.93</v>
+      </c>
+      <c r="E30">
+        <v>810</v>
+      </c>
+      <c r="F30">
+        <v>1710</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30">
+        <v>2550</v>
+      </c>
+      <c r="I30">
+        <v>784.46</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>454.1875</v>
+      </c>
+      <c r="L30">
+        <v>454.1875</v>
+      </c>
+      <c r="M30">
+        <v>908.375</v>
+      </c>
+      <c r="N30">
+        <v>200</v>
+      </c>
+      <c r="O30">
+        <v>200</v>
+      </c>
+      <c r="P30">
+        <v>400</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>15772.2825</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>15772.2825</v>
+      </c>
+      <c r="AF30">
+        <v>1740</v>
+      </c>
+      <c r="AG30">
+        <v>15772.2825</v>
+      </c>
+      <c r="AH30">
+        <v>18020.93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31">
+        <v>18625.18</v>
+      </c>
+      <c r="E31">
+        <v>855</v>
+      </c>
+      <c r="F31">
+        <v>1805</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>2690</v>
+      </c>
+      <c r="I31">
+        <v>1753.51</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>475</v>
+      </c>
+      <c r="L31">
+        <v>475</v>
+      </c>
+      <c r="M31">
+        <v>950</v>
+      </c>
+      <c r="N31">
+        <v>200</v>
+      </c>
+      <c r="O31">
+        <v>200</v>
+      </c>
+      <c r="P31">
+        <v>400</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>15341.67</v>
+      </c>
+      <c r="Z31">
+        <v>6200</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>21541.67</v>
+      </c>
+      <c r="AF31">
+        <v>1835</v>
+      </c>
+      <c r="AG31">
+        <v>21541.67</v>
+      </c>
+      <c r="AH31">
+        <v>24825.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32">
+        <v>25514.43</v>
+      </c>
+      <c r="E32">
+        <v>1125</v>
+      </c>
+      <c r="F32">
+        <v>2375</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>3530</v>
+      </c>
+      <c r="I32">
+        <v>1845.8</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>628.4250000000001</v>
+      </c>
+      <c r="L32">
+        <v>628.4250000000001</v>
+      </c>
+      <c r="M32">
+        <v>1256.85</v>
+      </c>
+      <c r="N32">
+        <v>200</v>
+      </c>
+      <c r="O32">
+        <v>200</v>
+      </c>
+      <c r="P32">
+        <v>400</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>409.2007500000001</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>21306.00425</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>21306.00425</v>
+      </c>
+      <c r="AF32">
+        <v>2405</v>
+      </c>
+      <c r="AG32">
+        <v>21306.00425</v>
+      </c>
+      <c r="AH32">
+        <v>25514.43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33">
+        <v>17999.71</v>
+      </c>
+      <c r="E33">
+        <v>765</v>
+      </c>
+      <c r="F33">
+        <v>1615</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>2410</v>
+      </c>
+      <c r="I33">
+        <v>1522.78</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>419.1</v>
+      </c>
+      <c r="L33">
+        <v>419.1</v>
+      </c>
+      <c r="M33">
+        <v>838.2</v>
+      </c>
+      <c r="N33">
+        <v>200</v>
+      </c>
+      <c r="O33">
+        <v>200</v>
+      </c>
+      <c r="P33">
+        <v>400</v>
+      </c>
+      <c r="Q33">
+        <v>1748.92</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>2000</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>11343.91</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>11343.91</v>
+      </c>
+      <c r="AF33">
+        <v>1645</v>
+      </c>
+      <c r="AG33">
+        <v>11343.91</v>
+      </c>
+      <c r="AH33">
+        <v>17999.71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34">
+        <v>18348.8</v>
+      </c>
+      <c r="E34">
+        <v>810</v>
+      </c>
+      <c r="F34">
+        <v>1710</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>2550</v>
+      </c>
+      <c r="I34">
+        <v>1661.22</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>453.3150000000001</v>
+      </c>
+      <c r="L34">
+        <v>453.325</v>
+      </c>
+      <c r="M34">
+        <v>906.6400000000001</v>
+      </c>
+      <c r="N34">
+        <v>200</v>
+      </c>
+      <c r="O34">
+        <v>200</v>
+      </c>
+      <c r="P34">
+        <v>400</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>15224.265</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>15224.265</v>
+      </c>
+      <c r="AF34">
+        <v>1740</v>
+      </c>
+      <c r="AG34">
+        <v>15224.265</v>
+      </c>
+      <c r="AH34">
+        <v>18348.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35">
+        <v>14329.71</v>
+      </c>
+      <c r="E35">
+        <v>720</v>
+      </c>
+      <c r="F35">
+        <v>1520</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35">
+        <v>2270</v>
+      </c>
+      <c r="I35">
+        <v>738.3200000000001</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>400</v>
+      </c>
+      <c r="L35">
+        <v>400</v>
+      </c>
+      <c r="M35">
+        <v>800</v>
+      </c>
+      <c r="N35">
+        <v>200</v>
+      </c>
+      <c r="O35">
+        <v>200</v>
+      </c>
+      <c r="P35">
+        <v>400</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>153.36</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>12118.03</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>12118.03</v>
+      </c>
+      <c r="AF35">
+        <v>1550</v>
+      </c>
+      <c r="AG35">
+        <v>12118.03</v>
+      </c>
+      <c r="AH35">
+        <v>14329.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B19">
-        <v>41454.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B36">
+        <v>107044.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B37">
+        <v>172778.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B22">
-        <v>17308.69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="B41">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B42">
+        <v>203126.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B43">
+        <v>87656.84999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B44">
+        <v>260004.79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="B28">
-        <v>6852.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="B45">
+        <v>55828.94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="A46" t="s">
         <v>54</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="B46">
+        <v>26341.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="B30">
-        <v>6550</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B47">
+        <v>68749.45999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45">
-        <v>1027.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>73</v>
-      </c>
       <c r="B48">
-        <v>444.65</v>
+        <v>136123.18</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>9507.5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>13897.5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2269,7 +4600,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2277,7 +4608,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2285,170 +4616,538 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>800</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>7452.5</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>600</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>400</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>200</v>
+        <v>12512.5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>2457.8</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>3750.025000000001</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68">
+        <v>3932.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71">
+        <v>1453.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73">
+        <v>1514.55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74">
+        <v>3248.2625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
         <v>89</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
+      <c r="B81">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
         <v>90</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="B82">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>91</v>
       </c>
-      <c r="D66">
-        <v>134.19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="B83">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
         <v>92</v>
       </c>
-      <c r="D67">
-        <v>2232.784500000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+      <c r="B84">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="D68">
-        <v>28030</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
         <v>94</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+      <c r="B86">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
         <v>95</v>
       </c>
-      <c r="D70">
-        <v>9924.700000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
+      <c r="B87">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
         <v>96</v>
       </c>
-      <c r="D71">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
+      <c r="D88">
+        <v>167.39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
         <v>97</v>
       </c>
-      <c r="D72">
-        <v>941.46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
+      <c r="D89">
+        <v>333.82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>98</v>
       </c>
-      <c r="D73">
-        <v>2915.91</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100">
+        <v>153.36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101">
+        <v>111.82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102">
+        <v>455.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103">
+        <v>139761.771</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="D104">
+        <v>104160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105">
+        <v>31794.17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107">
+        <v>50121.065</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109">
+        <v>21001.58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="D115">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="D118">
+        <v>18157.16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="D119">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
         <v>32</v>
       </c>
-      <c r="D74">
-        <v>156031.8655</v>
+      <c r="D120">
+        <v>1042489.5415</v>
       </c>
     </row>
   </sheetData>

--- a/payroll_gross.xlsx
+++ b/payroll_gross.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="152">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>SSS/MEDICARE/ECC PAYABLE</t>
+  </si>
+  <si>
+    <t>SSS LOAN PAYABLE</t>
   </si>
   <si>
     <t>SSS CALAMITY LOAN PAYABLE</t>
@@ -939,10 +942,10 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>16895.14</v>
@@ -1043,10 +1046,10 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>24196.35</v>
@@ -1147,10 +1150,10 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4">
         <v>19850.46</v>
@@ -1251,10 +1254,10 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D5">
         <v>22293.21</v>
@@ -1355,10 +1358,10 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D6">
         <v>15842.23</v>
@@ -1459,10 +1462,10 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7">
         <v>34741.21</v>
@@ -1563,10 +1566,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8">
         <v>22863.93</v>
@@ -1667,10 +1670,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D9">
         <v>15284.66</v>
@@ -1771,10 +1774,10 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D10">
         <v>15245.67</v>
@@ -1875,10 +1878,10 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D11">
         <v>24982.37</v>
@@ -1979,10 +1982,10 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D12">
         <v>13128.68</v>
@@ -2083,10 +2086,10 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D13">
         <v>23901.44</v>
@@ -2187,10 +2190,10 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D14">
         <v>230000</v>
@@ -2291,10 +2294,10 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15">
         <v>125000</v>
@@ -2395,10 +2398,10 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D16">
         <v>17708.77</v>
@@ -2499,10 +2502,10 @@
         <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D17">
         <v>40187.41</v>
@@ -2603,10 +2606,10 @@
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D18">
         <v>19482.8</v>
@@ -2707,10 +2710,10 @@
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D19">
         <v>66174.04999999999</v>
@@ -2811,10 +2814,10 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D20">
         <v>230000</v>
@@ -2915,10 +2918,10 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D21">
         <v>30004.79</v>
@@ -3019,10 +3022,10 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D22">
         <v>14378.57</v>
@@ -3123,10 +3126,10 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D23">
         <v>20200.12</v>
@@ -3227,10 +3230,10 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D24">
         <v>20250.25</v>
@@ -3331,10 +3334,10 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
         <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>125</v>
       </c>
       <c r="D25">
         <v>24329.6</v>
@@ -3435,10 +3438,10 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D26">
         <v>23101.36</v>
@@ -3539,10 +3542,10 @@
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D27">
         <v>15207.83</v>
@@ -3643,10 +3646,10 @@
         <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D28">
         <v>23995.33</v>
@@ -3747,10 +3750,10 @@
         <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D29">
         <v>17084.42</v>
@@ -3851,10 +3854,10 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30">
         <v>18020.93</v>
@@ -3955,10 +3958,10 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D31">
         <v>18625.18</v>
@@ -4059,10 +4062,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D32">
         <v>25514.43</v>
@@ -4163,10 +4166,10 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D33">
         <v>17999.71</v>
@@ -4267,10 +4270,10 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D34">
         <v>18348.8</v>
@@ -4371,10 +4374,10 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D35">
         <v>14329.71</v>
@@ -5032,7 +5035,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5040,7 +5043,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D107">
         <v>50121.065</v>
@@ -5048,7 +5051,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D108">
         <v>13600</v>
@@ -5056,7 +5059,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D109">
         <v>21001.58</v>
@@ -5064,7 +5067,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D110">
         <v>1000</v>
@@ -5072,7 +5075,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D111">
         <v>3000</v>
@@ -5080,7 +5083,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D112">
         <v>2000</v>
@@ -5088,7 +5091,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D113">
         <v>2000</v>
@@ -5096,7 +5099,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D114">
         <v>2000</v>
@@ -5104,7 +5107,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D115">
         <v>4600</v>
@@ -5112,7 +5115,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D116">
         <v>2000</v>
@@ -5120,7 +5123,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D117">
         <v>3000</v>
@@ -5128,7 +5131,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D118">
         <v>18157.16</v>
@@ -5136,7 +5139,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D119">
         <v>9500</v>

--- a/payroll_gross.xlsx
+++ b/payroll_gross.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -118,7 +118,16 @@
     <t>GROSS</t>
   </si>
   <si>
-    <t>ENGINEERING DEPARTMENT - ANTIPOLO</t>
+    <t>EMD DEPARTMENT</t>
+  </si>
+  <si>
+    <t>ENGINEERING DEPARTMENT - CAVITE</t>
+  </si>
+  <si>
+    <t>HR DEPARTMENT</t>
+  </si>
+  <si>
+    <t>PERMITS &amp; LICENSES DEPARTMENT</t>
   </si>
   <si>
     <t>SALARIES &amp; WAGES - ACCOUNTING DEPARTMENT</t>
@@ -307,22 +316,37 @@
     <t>PAG-IBIG SALARY LOAN PAYABLE</t>
   </si>
   <si>
-    <t>CORONEJO, FREDDIE BUENO</t>
-  </si>
-  <si>
-    <t>REY, JOEL SERVILLA</t>
-  </si>
-  <si>
-    <t>QH2</t>
-  </si>
-  <si>
-    <t>DELA TORRE, CHERRY BAUTISTA</t>
-  </si>
-  <si>
-    <t>PARTIBLE, OSCAR AGLIAM</t>
-  </si>
-  <si>
-    <t>ROSALLOSA, MARJHON PONPON</t>
+    <t>ELISTON PLACE</t>
+  </si>
+  <si>
+    <t>DELOS REYES, JOHN CARLO</t>
+  </si>
+  <si>
+    <t>SAMBAJON, MA. CRISTINA FAUNI</t>
+  </si>
+  <si>
+    <t>SILONG, JIRALP VALDEZ</t>
+  </si>
+  <si>
+    <t>CELESTINO, JUHNE VILMA ALFORQUE</t>
+  </si>
+  <si>
+    <t>CORONEJO, JOSEPH BUENO</t>
+  </si>
+  <si>
+    <t>EVANGELISTA, JOSHUA CALINISAN</t>
+  </si>
+  <si>
+    <t>ARIANNE MAE BALMES BROWN</t>
+  </si>
+  <si>
+    <t>HERMO, GRAZELENE ANNE</t>
+  </si>
+  <si>
+    <t>REQUISO, MERIAM LICAYAN</t>
+  </si>
+  <si>
+    <t>BERNADIT, SERAPIO MAHAYAG</t>
   </si>
 </sst>
 </file>
@@ -680,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AH74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -795,25 +819,25 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D2">
-        <v>25400.82</v>
+        <v>12963.42</v>
       </c>
       <c r="E2">
-        <v>855</v>
+        <v>630</v>
       </c>
       <c r="F2">
-        <v>1805</v>
+        <v>1330</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>2690</v>
+        <v>1970</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -822,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>475</v>
+        <v>350</v>
       </c>
       <c r="L2">
-        <v>475</v>
+        <v>350</v>
       </c>
       <c r="M2">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="N2">
         <v>200</v>
@@ -846,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>455.6729999999999</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -864,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>20415.147</v>
+        <v>11783.42</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -882,16 +906,16 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>20415.147</v>
+        <v>11783.42</v>
       </c>
       <c r="AF2">
-        <v>1835</v>
+        <v>1340</v>
       </c>
       <c r="AG2">
-        <v>20415.147</v>
+        <v>11783.42</v>
       </c>
       <c r="AH2">
-        <v>25400.82</v>
+        <v>12963.42</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -899,25 +923,25 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D3">
-        <v>27300</v>
+        <v>29940.44</v>
       </c>
       <c r="E3">
-        <v>1237.5</v>
+        <v>1327.5</v>
       </c>
       <c r="F3">
-        <v>2612.5</v>
+        <v>2802.5</v>
       </c>
       <c r="G3">
         <v>30</v>
       </c>
       <c r="H3">
-        <v>3880</v>
+        <v>4160</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -926,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>682.5</v>
+        <v>740</v>
       </c>
       <c r="L3">
-        <v>682.5</v>
+        <v>740</v>
       </c>
       <c r="M3">
-        <v>1365</v>
+        <v>1480</v>
       </c>
       <c r="N3">
         <v>200</v>
@@ -950,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>652.05</v>
+        <v>1025.991</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -968,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>24527.95</v>
+        <v>26646.949</v>
       </c>
       <c r="Z3">
-        <v>6100</v>
+        <v>14400</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>165.64</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -986,16 +1010,16 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>30627.95</v>
+        <v>41212.589</v>
       </c>
       <c r="AF3">
-        <v>2642.5</v>
+        <v>2832.5</v>
       </c>
       <c r="AG3">
-        <v>30627.95</v>
+        <v>41212.589</v>
       </c>
       <c r="AH3">
-        <v>33400</v>
+        <v>44506.08</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -1003,40 +1027,40 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D4">
-        <v>13650</v>
+        <v>15709.13</v>
       </c>
       <c r="E4">
-        <v>607.5</v>
+        <v>630</v>
       </c>
       <c r="F4">
-        <v>1282.5</v>
+        <v>1330</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>1900</v>
+        <v>1970</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>392.23</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>341.25</v>
+        <v>350</v>
       </c>
       <c r="L4">
-        <v>341.25</v>
+        <v>350</v>
       </c>
       <c r="M4">
-        <v>682.5</v>
+        <v>700</v>
       </c>
       <c r="N4">
         <v>200</v>
@@ -1072,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>12501.25</v>
+        <v>14136.9</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1090,42 +1114,42 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>12501.25</v>
+        <v>14136.9</v>
       </c>
       <c r="AF4">
-        <v>1292.5</v>
+        <v>1340</v>
       </c>
       <c r="AG4">
-        <v>12501.25</v>
+        <v>14136.9</v>
       </c>
       <c r="AH4">
-        <v>13650</v>
+        <v>15709.13</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D5">
-        <v>13650</v>
+        <v>17661.51</v>
       </c>
       <c r="E5">
-        <v>607.5</v>
+        <v>1035</v>
       </c>
       <c r="F5">
-        <v>1282.5</v>
+        <v>2185</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>1900</v>
+        <v>3250</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1134,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>341.25</v>
+        <v>575</v>
       </c>
       <c r="L5">
-        <v>341.25</v>
+        <v>575</v>
       </c>
       <c r="M5">
-        <v>682.5</v>
+        <v>1150</v>
       </c>
       <c r="N5">
         <v>200</v>
@@ -1161,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1176,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>10501.25</v>
+        <v>15851.51</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1194,57 +1218,57 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>10501.25</v>
+        <v>15851.51</v>
       </c>
       <c r="AF5">
-        <v>1292.5</v>
+        <v>2215</v>
       </c>
       <c r="AG5">
-        <v>10501.25</v>
+        <v>15851.51</v>
       </c>
       <c r="AH5">
-        <v>13650</v>
+        <v>17661.51</v>
       </c>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6">
-        <v>14155.5</v>
+        <v>18207.02</v>
       </c>
       <c r="E6">
-        <v>607.5</v>
+        <v>810</v>
       </c>
       <c r="F6">
-        <v>1282.5</v>
+        <v>1710</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>1900</v>
+        <v>2550</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1661.22</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>339.1</v>
+        <v>450</v>
       </c>
       <c r="L6">
-        <v>339.1</v>
+        <v>450</v>
       </c>
       <c r="M6">
-        <v>678.2</v>
+        <v>900</v>
       </c>
       <c r="N6">
         <v>200</v>
@@ -1280,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>13008.9</v>
+        <v>15085.8</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1298,61 +1322,541 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>13008.9</v>
+        <v>15085.8</v>
       </c>
       <c r="AF6">
-        <v>1292.5</v>
+        <v>1740</v>
       </c>
       <c r="AG6">
-        <v>13008.9</v>
+        <v>15085.8</v>
       </c>
       <c r="AH6">
-        <v>14155.5</v>
+        <v>18207.02</v>
       </c>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7">
+        <v>28322.06</v>
+      </c>
+      <c r="E7">
+        <v>1260</v>
+      </c>
+      <c r="F7">
+        <v>2660</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>3950</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>700</v>
+      </c>
+      <c r="L7">
+        <v>700</v>
+      </c>
+      <c r="M7">
+        <v>1400</v>
+      </c>
+      <c r="N7">
+        <v>200</v>
+      </c>
+      <c r="O7">
+        <v>200</v>
+      </c>
+      <c r="P7">
+        <v>400</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>799.3590000000002</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>25362.701</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>25362.701</v>
+      </c>
+      <c r="AF7">
+        <v>2690</v>
+      </c>
+      <c r="AG7">
+        <v>25362.701</v>
+      </c>
+      <c r="AH7">
+        <v>28322.06</v>
       </c>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8">
+        <v>6208.02</v>
+      </c>
+      <c r="E8">
+        <v>810</v>
+      </c>
+      <c r="F8">
+        <v>1710</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>2550</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>450</v>
+      </c>
+      <c r="L8">
+        <v>450</v>
+      </c>
+      <c r="M8">
+        <v>900</v>
+      </c>
+      <c r="N8">
+        <v>200</v>
+      </c>
+      <c r="O8">
+        <v>200</v>
+      </c>
+      <c r="P8">
+        <v>400</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>4748.02</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>4748.02</v>
+      </c>
+      <c r="AF8">
+        <v>1740</v>
+      </c>
+      <c r="AG8">
+        <v>4748.02</v>
+      </c>
+      <c r="AH8">
+        <v>6208.02</v>
       </c>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9">
+        <v>25287.54</v>
+      </c>
+      <c r="E9">
+        <v>1125</v>
+      </c>
+      <c r="F9">
+        <v>2375</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>3530</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>625</v>
+      </c>
+      <c r="L9">
+        <v>625</v>
+      </c>
+      <c r="M9">
+        <v>1250</v>
+      </c>
+      <c r="N9">
+        <v>200</v>
+      </c>
+      <c r="O9">
+        <v>200</v>
+      </c>
+      <c r="P9">
+        <v>400</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>375.6810000000001</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>22961.859</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>22961.859</v>
+      </c>
+      <c r="AF9">
+        <v>2405</v>
+      </c>
+      <c r="AG9">
+        <v>22961.859</v>
+      </c>
+      <c r="AH9">
+        <v>25287.54</v>
       </c>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10">
-        <v>100256.32</v>
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10">
+        <v>16224.61</v>
+      </c>
+      <c r="E10">
+        <v>720</v>
+      </c>
+      <c r="F10">
+        <v>1520</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>2270</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>402.7</v>
+      </c>
+      <c r="L10">
+        <v>402.7</v>
+      </c>
+      <c r="M10">
+        <v>805.4000000000001</v>
+      </c>
+      <c r="N10">
+        <v>200</v>
+      </c>
+      <c r="O10">
+        <v>200</v>
+      </c>
+      <c r="P10">
+        <v>400</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>14901.91</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>14901.91</v>
+      </c>
+      <c r="AF10">
+        <v>1550</v>
+      </c>
+      <c r="AG10">
+        <v>14901.91</v>
+      </c>
+      <c r="AH10">
+        <v>16224.61</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11">
+        <v>17734.86</v>
+      </c>
+      <c r="E11">
+        <v>810</v>
+      </c>
+      <c r="F11">
+        <v>1710</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>2550</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>444.65</v>
+      </c>
+      <c r="L11">
+        <v>444.65</v>
+      </c>
+      <c r="M11">
+        <v>889.3000000000001</v>
+      </c>
+      <c r="N11">
+        <v>200</v>
+      </c>
+      <c r="O11">
+        <v>200</v>
+      </c>
+      <c r="P11">
+        <v>400</v>
+      </c>
+      <c r="Q11">
+        <v>941.46</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>15338.75</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>15338.75</v>
+      </c>
+      <c r="AF11">
+        <v>1740</v>
+      </c>
+      <c r="AG11">
+        <v>15338.75</v>
+      </c>
+      <c r="AH11">
+        <v>17734.86</v>
       </c>
     </row>
     <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1360,7 +1864,7 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1368,15 +1872,15 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>73178.63</v>
       </c>
     </row>
     <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1384,15 +1888,15 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>64190.59</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1400,15 +1904,15 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>47720.17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1416,7 +1920,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1424,15 +1928,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>17734.86</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1440,15 +1944,15 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23">
-        <v>8355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1456,7 +1960,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1464,7 +1968,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1472,15 +1976,15 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>5512.5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1488,15 +1992,15 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>6645</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1504,15 +2008,15 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1520,7 +2024,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1528,15 +2032,15 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1544,15 +2048,15 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36">
-        <v>2179.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1560,7 +2064,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1568,7 +2072,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1576,15 +2080,15 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1592,15 +2096,15 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1608,15 +2112,15 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1477.7</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1624,7 +2128,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1632,202 +2136,226 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>444.65</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>76</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>77</v>
       </c>
-      <c r="B49">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>78</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>79</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="B53">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>80</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>81</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
+      <c r="B55">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>82</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>83</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="B57">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>84</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>85</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>86</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>87</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>88</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>89</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>90</v>
       </c>
-      <c r="D62">
-        <v>1107.723</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>91</v>
-      </c>
-      <c r="D63">
-        <v>12270</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64">
+      <c r="B64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65">
+        <v>91</v>
+      </c>
+      <c r="B65">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D66">
-        <v>4358.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D67">
-        <v>2000</v>
+        <v>2201.031</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>28750</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D69">
-        <v>3000</v>
+        <v>2053.45</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D70">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71">
+        <v>10174.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73">
+        <v>941.46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>32</v>
       </c>
-      <c r="D71">
-        <v>87054.497</v>
+      <c r="D74">
+        <v>181383.459</v>
       </c>
     </row>
   </sheetData>

--- a/payroll_gross.xlsx
+++ b/payroll_gross.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="143">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -118,18 +118,36 @@
     <t>GROSS</t>
   </si>
   <si>
-    <t>EMD DEPARTMENT</t>
-  </si>
-  <si>
-    <t>ENGINEERING DEPARTMENT - CAVITE</t>
+    <t>ACCOUNTING DEPARTMENT</t>
+  </si>
+  <si>
+    <t>ADMIN DEPARTMENT</t>
+  </si>
+  <si>
+    <t>FINANCE DEPARTMENT</t>
   </si>
   <si>
     <t>HR DEPARTMENT</t>
   </si>
   <si>
+    <t>LEGAL DEPARTMENT</t>
+  </si>
+  <si>
+    <t>OFFICE OF THE PRESIDENT</t>
+  </si>
+  <si>
     <t>PERMITS &amp; LICENSES DEPARTMENT</t>
   </si>
   <si>
+    <t>PLANNING &amp; DESIGN DEPARTMENT</t>
+  </si>
+  <si>
+    <t>SALES &amp; LOAN DOCUMENTATION</t>
+  </si>
+  <si>
+    <t>TREASURY DEPARTMENT</t>
+  </si>
+  <si>
     <t>SALARIES &amp; WAGES - ACCOUNTING DEPARTMENT</t>
   </si>
   <si>
@@ -301,7 +319,7 @@
     <t>SSS/MEDICARE/ECC PAYABLE</t>
   </si>
   <si>
-    <t>SSS LOAN PAYABLE</t>
+    <t>SSS SALARY LOAN PAYABLE</t>
   </si>
   <si>
     <t>SSS CALAMITY LOAN PAYABLE</t>
@@ -316,37 +334,115 @@
     <t>PAG-IBIG SALARY LOAN PAYABLE</t>
   </si>
   <si>
-    <t>ELISTON PLACE</t>
-  </si>
-  <si>
-    <t>DELOS REYES, JOHN CARLO</t>
-  </si>
-  <si>
-    <t>SAMBAJON, MA. CRISTINA FAUNI</t>
-  </si>
-  <si>
-    <t>SILONG, JIRALP VALDEZ</t>
-  </si>
-  <si>
-    <t>CELESTINO, JUHNE VILMA ALFORQUE</t>
-  </si>
-  <si>
-    <t>CORONEJO, JOSEPH BUENO</t>
-  </si>
-  <si>
-    <t>EVANGELISTA, JOSHUA CALINISAN</t>
-  </si>
-  <si>
-    <t>ARIANNE MAE BALMES BROWN</t>
-  </si>
-  <si>
-    <t>HERMO, GRAZELENE ANNE</t>
-  </si>
-  <si>
-    <t>REQUISO, MERIAM LICAYAN</t>
-  </si>
-  <si>
-    <t>BERNADIT, SERAPIO MAHAYAG</t>
+    <t>COLUMNA, ALMA ZAPATA</t>
+  </si>
+  <si>
+    <t>DE JOSE, GLEDA GICANGAO</t>
+  </si>
+  <si>
+    <t>DOMIQUIL, CONSTANCIO NAVARRO</t>
+  </si>
+  <si>
+    <t>DUNGQUE, MARIA RAYLEN AGANG</t>
+  </si>
+  <si>
+    <t>MENDEZ, REDEEMER DE LEON</t>
+  </si>
+  <si>
+    <t>NATIVIDAD, LORA RUTH FRONDA</t>
+  </si>
+  <si>
+    <t>SAN LUIS, MARIBEL MANAOG</t>
+  </si>
+  <si>
+    <t>VISMONTE, MA. CRISTINA BARBECHO</t>
+  </si>
+  <si>
+    <t>DELOS REYES, ANGELICO ZENON MONTEMAYOR</t>
+  </si>
+  <si>
+    <t>GENERAL COMMON EXPENSE</t>
+  </si>
+  <si>
+    <t>FERNANDEZ, MARIBETH ANTIQUINA</t>
+  </si>
+  <si>
+    <t>LEMON, LYRA NICANOR</t>
+  </si>
+  <si>
+    <t>MANAPAT, MYTRICIA LAIZEL FULGUERAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANITAS, SYRA SHIN </t>
+  </si>
+  <si>
+    <t>ABRIAM, AGNES BURGOS</t>
+  </si>
+  <si>
+    <t>BORJA, MA. ELIZA DELIS</t>
+  </si>
+  <si>
+    <t>CAPARAS, CHARLES VICTOR EDQUILA</t>
+  </si>
+  <si>
+    <t>DIVINA, MICHELLE COBICO</t>
+  </si>
+  <si>
+    <t>MAKIRAMDAM, MILYN PANGANIBAN</t>
+  </si>
+  <si>
+    <t>SEBESON, PAULA MAE DUSONG</t>
+  </si>
+  <si>
+    <t>YARTE, JEFFREY CECILIO</t>
+  </si>
+  <si>
+    <t>LIM, JENNIFER BONGAT</t>
+  </si>
+  <si>
+    <t>FLORESTA, GLEN</t>
+  </si>
+  <si>
+    <t>MARRAY, ALYSSA JORNACION</t>
+  </si>
+  <si>
+    <t>BOLANTE, IVAN MENDOZA</t>
+  </si>
+  <si>
+    <t>ESTOESTA, JOSEPH MADULID</t>
+  </si>
+  <si>
+    <t>BONGAT, JEFFERSON SY</t>
+  </si>
+  <si>
+    <t>BALDERAS, APRIL CLARISSE ALLEQUIR</t>
+  </si>
+  <si>
+    <t>MOYANO, MARY LAYKA PEDERIO</t>
+  </si>
+  <si>
+    <t>SIBUG, PATRIZIA LOU GUINTO</t>
+  </si>
+  <si>
+    <t>MEDALLA, RIZZA ALMOETE</t>
+  </si>
+  <si>
+    <t>TABOTABO, MARK STEPHEN PAMINTUAN</t>
+  </si>
+  <si>
+    <t>ASUNCION, SHERILYN DE GUZMAN</t>
+  </si>
+  <si>
+    <t>BALOLOY, SARAH HIZO</t>
+  </si>
+  <si>
+    <t>CAPILLAN, MURIEL TUANQUIN</t>
+  </si>
+  <si>
+    <t>CUARTEROS, ROCHELLE SARAH MERILLES</t>
+  </si>
+  <si>
+    <t>GALLARTE, MYRNA DOMAGSANG</t>
   </si>
 </sst>
 </file>
@@ -704,7 +800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH74"/>
+  <dimension ref="A1:AH109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,40 +915,40 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D2">
-        <v>12963.42</v>
+        <v>7465.64</v>
       </c>
       <c r="E2">
-        <v>630</v>
+        <v>877.5</v>
       </c>
       <c r="F2">
-        <v>1330</v>
+        <v>1852.5</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>1970</v>
+        <v>2760</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1799.65</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>350</v>
+        <v>482.3</v>
       </c>
       <c r="L2">
-        <v>350</v>
+        <v>482.3</v>
       </c>
       <c r="M2">
-        <v>700</v>
+        <v>964.6</v>
       </c>
       <c r="N2">
         <v>200</v>
@@ -864,7 +960,7 @@
         <v>400</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1717.05</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -873,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -888,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>11783.42</v>
+        <v>389.1399999999994</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1859.1</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -906,16 +1002,16 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>11783.42</v>
+        <v>2248.239999999999</v>
       </c>
       <c r="AF2">
-        <v>1340</v>
+        <v>1882.5</v>
       </c>
       <c r="AG2">
-        <v>11783.42</v>
+        <v>2248.239999999999</v>
       </c>
       <c r="AH2">
-        <v>12963.42</v>
+        <v>9324.74</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -923,40 +1019,40 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D3">
-        <v>29940.44</v>
+        <v>29014.12</v>
       </c>
       <c r="E3">
-        <v>1327.5</v>
+        <v>1080</v>
       </c>
       <c r="F3">
-        <v>2802.5</v>
+        <v>2280</v>
       </c>
       <c r="G3">
         <v>30</v>
       </c>
       <c r="H3">
-        <v>4160</v>
+        <v>3390</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1845.8</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>740</v>
+        <v>600.5</v>
       </c>
       <c r="L3">
-        <v>740</v>
+        <v>600.5</v>
       </c>
       <c r="M3">
-        <v>1480</v>
+        <v>1201</v>
       </c>
       <c r="N3">
         <v>200</v>
@@ -968,13 +1064,13 @@
         <v>400</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2282.57</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1025.991</v>
+        <v>945.0929999999998</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -992,13 +1088,13 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>26646.949</v>
+        <v>22060.157</v>
       </c>
       <c r="Z3">
-        <v>14400</v>
+        <v>3800</v>
       </c>
       <c r="AA3">
-        <v>165.64</v>
+        <v>43.71</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1010,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>41212.589</v>
+        <v>25903.867</v>
       </c>
       <c r="AF3">
-        <v>2832.5</v>
+        <v>2310</v>
       </c>
       <c r="AG3">
-        <v>41212.589</v>
+        <v>25903.867</v>
       </c>
       <c r="AH3">
-        <v>44506.08</v>
+        <v>32857.82999999999</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -1027,40 +1123,40 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D4">
-        <v>15709.13</v>
+        <v>21399.96</v>
       </c>
       <c r="E4">
-        <v>630</v>
+        <v>787.5</v>
       </c>
       <c r="F4">
-        <v>1330</v>
+        <v>1662.5</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H4">
-        <v>1970</v>
+        <v>2480</v>
       </c>
       <c r="I4">
-        <v>392.23</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>350</v>
+        <v>442.45</v>
       </c>
       <c r="L4">
-        <v>350</v>
+        <v>442.45</v>
       </c>
       <c r="M4">
-        <v>700</v>
+        <v>884.9000000000001</v>
       </c>
       <c r="N4">
         <v>200</v>
@@ -1096,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>14136.9</v>
+        <v>19970.01</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1114,42 +1210,42 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>14136.9</v>
+        <v>19970.01</v>
       </c>
       <c r="AF4">
-        <v>1340</v>
+        <v>1692.5</v>
       </c>
       <c r="AG4">
-        <v>14136.9</v>
+        <v>19970.01</v>
       </c>
       <c r="AH4">
-        <v>15709.13</v>
+        <v>21399.96</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D5">
-        <v>17661.51</v>
+        <v>23703</v>
       </c>
       <c r="E5">
-        <v>1035</v>
+        <v>900</v>
       </c>
       <c r="F5">
-        <v>2185</v>
+        <v>1900</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
       <c r="H5">
-        <v>3250</v>
+        <v>2830</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1158,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="L5">
-        <v>575</v>
+        <v>500</v>
       </c>
       <c r="M5">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="N5">
         <v>200</v>
@@ -1182,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>190.5000000000005</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1200,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>15851.51</v>
+        <v>21912.5</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1218,57 +1314,57 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>15851.51</v>
+        <v>21912.5</v>
       </c>
       <c r="AF5">
-        <v>2215</v>
+        <v>1930</v>
       </c>
       <c r="AG5">
-        <v>15851.51</v>
+        <v>21912.5</v>
       </c>
       <c r="AH5">
-        <v>17661.51</v>
+        <v>23703</v>
       </c>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D6">
-        <v>18207.02</v>
+        <v>22906.08</v>
       </c>
       <c r="E6">
-        <v>810</v>
+        <v>855</v>
       </c>
       <c r="F6">
-        <v>1710</v>
+        <v>1805</v>
       </c>
       <c r="G6">
         <v>30</v>
       </c>
       <c r="H6">
-        <v>2550</v>
+        <v>2690</v>
       </c>
       <c r="I6">
-        <v>1661.22</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="L6">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="M6">
-        <v>900</v>
+        <v>950</v>
       </c>
       <c r="N6">
         <v>200</v>
@@ -1286,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>81.46200000000026</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1304,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>15085.8</v>
+        <v>21294.618</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1322,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>15085.8</v>
+        <v>21294.618</v>
       </c>
       <c r="AF6">
-        <v>1740</v>
+        <v>1835</v>
       </c>
       <c r="AG6">
-        <v>15085.8</v>
+        <v>21294.618</v>
       </c>
       <c r="AH6">
-        <v>18207.02</v>
+        <v>22906.08</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1339,40 +1435,40 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D7">
-        <v>28322.06</v>
+        <v>40194.52</v>
       </c>
       <c r="E7">
-        <v>1260</v>
+        <v>1350</v>
       </c>
       <c r="F7">
-        <v>2660</v>
+        <v>2850</v>
       </c>
       <c r="G7">
         <v>30</v>
       </c>
       <c r="H7">
-        <v>3950</v>
+        <v>4230</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1845.8</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>700</v>
+        <v>1006.71</v>
       </c>
       <c r="L7">
-        <v>700</v>
+        <v>1006.715</v>
       </c>
       <c r="M7">
-        <v>1400</v>
+        <v>2013.425</v>
       </c>
       <c r="N7">
         <v>200</v>
@@ -1390,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>799.3590000000002</v>
+        <v>2735.962000000001</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1408,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>25362.701</v>
+        <v>33056.048</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>142.64</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1426,42 +1522,42 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>25362.701</v>
+        <v>45598.688</v>
       </c>
       <c r="AF7">
-        <v>2690</v>
+        <v>2880</v>
       </c>
       <c r="AG7">
-        <v>25362.701</v>
+        <v>45598.688</v>
       </c>
       <c r="AH7">
-        <v>28322.06</v>
+        <v>52737.16</v>
       </c>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D8">
-        <v>6208.02</v>
+        <v>17853.36</v>
       </c>
       <c r="E8">
-        <v>810</v>
+        <v>990</v>
       </c>
       <c r="F8">
-        <v>1710</v>
+        <v>2090</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
       <c r="H8">
-        <v>2550</v>
+        <v>3110</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1470,13 +1566,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>450</v>
+        <v>547.8000000000001</v>
       </c>
       <c r="L8">
-        <v>450</v>
+        <v>547.8000000000001</v>
       </c>
       <c r="M8">
-        <v>900</v>
+        <v>1095.6</v>
       </c>
       <c r="N8">
         <v>200</v>
@@ -1488,7 +1584,7 @@
         <v>400</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>3680.46</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1512,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>4748.02</v>
+        <v>12435.1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>4122.35</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>58.67</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1530,42 +1626,42 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>4748.02</v>
+        <v>16616.12</v>
       </c>
       <c r="AF8">
-        <v>1740</v>
+        <v>2120</v>
       </c>
       <c r="AG8">
-        <v>4748.02</v>
+        <v>16616.12</v>
       </c>
       <c r="AH8">
-        <v>6208.02</v>
+        <v>22034.38</v>
       </c>
     </row>
     <row r="9" spans="1:34">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D9">
-        <v>25287.54</v>
+        <v>9084.920000000002</v>
       </c>
       <c r="E9">
-        <v>1125</v>
+        <v>900</v>
       </c>
       <c r="F9">
-        <v>2375</v>
+        <v>1900</v>
       </c>
       <c r="G9">
         <v>30</v>
       </c>
       <c r="H9">
-        <v>3530</v>
+        <v>2830</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1574,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="L9">
-        <v>625</v>
+        <v>500</v>
       </c>
       <c r="M9">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="N9">
         <v>200</v>
@@ -1598,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>375.6810000000001</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1616,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>22961.859</v>
+        <v>7484.920000000002</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1634,30 +1730,30 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>22961.859</v>
+        <v>7484.920000000002</v>
       </c>
       <c r="AF9">
-        <v>2405</v>
+        <v>1930</v>
       </c>
       <c r="AG9">
-        <v>22961.859</v>
+        <v>7484.920000000002</v>
       </c>
       <c r="AH9">
-        <v>25287.54</v>
+        <v>9084.920000000002</v>
       </c>
     </row>
     <row r="10" spans="1:34">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10">
-        <v>16224.61</v>
+        <v>14452.59</v>
       </c>
       <c r="E10">
         <v>720</v>
@@ -1672,19 +1768,19 @@
         <v>2270</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1384.35</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>402.7</v>
+        <v>398</v>
       </c>
       <c r="L10">
-        <v>402.7</v>
+        <v>398</v>
       </c>
       <c r="M10">
-        <v>805.4000000000001</v>
+        <v>796</v>
       </c>
       <c r="N10">
         <v>200</v>
@@ -1696,7 +1792,7 @@
         <v>400</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>542.11</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1705,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1720,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>14901.91</v>
+        <v>9208.129999999999</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1738,57 +1834,57 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>14901.91</v>
+        <v>9208.129999999999</v>
       </c>
       <c r="AF10">
         <v>1550</v>
       </c>
       <c r="AG10">
-        <v>14901.91</v>
+        <v>9208.129999999999</v>
       </c>
       <c r="AH10">
-        <v>16224.61</v>
+        <v>14452.59</v>
       </c>
     </row>
     <row r="11" spans="1:34">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D11">
-        <v>17734.86</v>
+        <v>13602.94</v>
       </c>
       <c r="E11">
-        <v>810</v>
+        <v>652.5</v>
       </c>
       <c r="F11">
-        <v>1710</v>
+        <v>1377.5</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>2550</v>
+        <v>2040</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1292.06</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>444.65</v>
+        <v>364.5</v>
       </c>
       <c r="L11">
-        <v>444.65</v>
+        <v>364.5</v>
       </c>
       <c r="M11">
-        <v>889.3000000000001</v>
+        <v>729</v>
       </c>
       <c r="N11">
         <v>200</v>
@@ -1800,7 +1896,7 @@
         <v>400</v>
       </c>
       <c r="Q11">
-        <v>941.46</v>
+        <v>814.55</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1824,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>15338.75</v>
+        <v>10279.33000000001</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1842,357 +1938,2853 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>15338.75</v>
+        <v>10279.33000000001</v>
       </c>
       <c r="AF11">
-        <v>1740</v>
+        <v>1387.5</v>
       </c>
       <c r="AG11">
-        <v>15338.75</v>
+        <v>10279.33000000001</v>
       </c>
       <c r="AH11">
-        <v>17734.86</v>
+        <v>13602.94</v>
       </c>
     </row>
     <row r="12" spans="1:34">
       <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12">
+        <v>26493.58</v>
+      </c>
+      <c r="E12">
+        <v>1170</v>
+      </c>
+      <c r="F12">
+        <v>2470</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>3670</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>655.25</v>
+      </c>
+      <c r="L12">
+        <v>655.25</v>
+      </c>
+      <c r="M12">
+        <v>1310.5</v>
+      </c>
+      <c r="N12">
+        <v>200</v>
+      </c>
+      <c r="O12">
+        <v>200</v>
+      </c>
+      <c r="P12">
+        <v>400</v>
+      </c>
+      <c r="Q12">
+        <v>2412.82</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>545.2995000000002</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>21510.2105</v>
+      </c>
+      <c r="Z12">
+        <v>4800</v>
+      </c>
+      <c r="AA12">
+        <v>55.21</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>26365.4205</v>
+      </c>
+      <c r="AF12">
+        <v>2500</v>
+      </c>
+      <c r="AG12">
+        <v>26365.4205</v>
+      </c>
+      <c r="AH12">
+        <v>31348.79</v>
       </c>
     </row>
     <row r="13" spans="1:34">
       <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13">
+        <v>16396.36</v>
+      </c>
+      <c r="E13">
+        <v>697.5</v>
+      </c>
+      <c r="F13">
+        <v>1472.5</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>2200</v>
+      </c>
+      <c r="I13">
+        <v>1338.2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>384.8</v>
+      </c>
+      <c r="L13">
+        <v>384.8</v>
+      </c>
+      <c r="M13">
+        <v>769.6</v>
+      </c>
+      <c r="N13">
+        <v>200</v>
+      </c>
+      <c r="O13">
+        <v>200</v>
+      </c>
+      <c r="P13">
+        <v>400</v>
+      </c>
+      <c r="Q13">
+        <v>530.71</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>13245.15</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>13245.15</v>
+      </c>
+      <c r="AF13">
+        <v>1502.5</v>
+      </c>
+      <c r="AG13">
+        <v>13245.15</v>
+      </c>
+      <c r="AH13">
+        <v>16396.36</v>
       </c>
     </row>
     <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14">
-        <v>73178.63</v>
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14">
+        <v>11004.47</v>
+      </c>
+      <c r="E14">
+        <v>1125</v>
+      </c>
+      <c r="F14">
+        <v>2375</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>3530</v>
+      </c>
+      <c r="I14">
+        <v>1845.8</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>628.42</v>
+      </c>
+      <c r="L14">
+        <v>628.4300000000002</v>
+      </c>
+      <c r="M14">
+        <v>1256.85</v>
+      </c>
+      <c r="N14">
+        <v>200</v>
+      </c>
+      <c r="O14">
+        <v>200</v>
+      </c>
+      <c r="P14">
+        <v>400</v>
+      </c>
+      <c r="Q14">
+        <v>920.61</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>6284.639999999999</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>6284.639999999999</v>
+      </c>
+      <c r="AF14">
+        <v>2405</v>
+      </c>
+      <c r="AG14">
+        <v>6284.639999999999</v>
+      </c>
+      <c r="AH14">
+        <v>11004.47</v>
       </c>
     </row>
     <row r="15" spans="1:34">
       <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15">
+        <v>230000</v>
+      </c>
+      <c r="E15">
+        <v>1350</v>
+      </c>
+      <c r="F15">
+        <v>2850</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>4230</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2500</v>
+      </c>
+      <c r="L15">
+        <v>2500</v>
+      </c>
+      <c r="M15">
+        <v>5000</v>
+      </c>
+      <c r="N15">
+        <v>200</v>
+      </c>
+      <c r="O15">
+        <v>200</v>
+      </c>
+      <c r="P15">
+        <v>400</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>51326.7</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>174623.3</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>174623.3</v>
+      </c>
+      <c r="AF15">
+        <v>2880</v>
+      </c>
+      <c r="AG15">
+        <v>174623.3</v>
+      </c>
+      <c r="AH15">
+        <v>230000</v>
       </c>
     </row>
     <row r="16" spans="1:34">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16">
+        <v>125000</v>
+      </c>
+      <c r="E16">
+        <v>1350</v>
+      </c>
+      <c r="F16">
+        <v>2850</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>4230</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>2500</v>
+      </c>
+      <c r="L16">
+        <v>2500</v>
+      </c>
+      <c r="M16">
+        <v>5000</v>
+      </c>
+      <c r="N16">
+        <v>200</v>
+      </c>
+      <c r="O16">
+        <v>200</v>
+      </c>
+      <c r="P16">
+        <v>400</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>22112.55</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>98837.45</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>98837.45</v>
+      </c>
+      <c r="AF16">
+        <v>2880</v>
+      </c>
+      <c r="AG16">
+        <v>98837.45</v>
+      </c>
+      <c r="AH16">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17">
+        <v>17515.15</v>
+      </c>
+      <c r="E17">
+        <v>787.5</v>
+      </c>
+      <c r="F17">
+        <v>1662.5</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>2480</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>432.9</v>
+      </c>
+      <c r="L17">
+        <v>432.9</v>
+      </c>
+      <c r="M17">
+        <v>865.8000000000001</v>
+      </c>
+      <c r="N17">
+        <v>200</v>
+      </c>
+      <c r="O17">
+        <v>200</v>
+      </c>
+      <c r="P17">
+        <v>400</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>16094.75</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>16094.75</v>
+      </c>
+      <c r="AF17">
+        <v>1692.5</v>
+      </c>
+      <c r="AG17">
+        <v>16094.75</v>
+      </c>
+      <c r="AH17">
+        <v>17515.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18">
+        <v>44036.78000000001</v>
+      </c>
+      <c r="E18">
+        <v>1350</v>
+      </c>
+      <c r="F18">
+        <v>2850</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>4230</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1094.5375</v>
+      </c>
+      <c r="L18">
+        <v>1094.5375</v>
+      </c>
+      <c r="M18">
+        <v>2189.075</v>
+      </c>
+      <c r="N18">
+        <v>200</v>
+      </c>
+      <c r="O18">
+        <v>200</v>
+      </c>
+      <c r="P18">
+        <v>400</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>3486.848500000002</v>
+      </c>
+      <c r="T18">
+        <v>4600</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>33305.39400000001</v>
+      </c>
+      <c r="Z18">
+        <v>20000</v>
+      </c>
+      <c r="AA18">
+        <v>230.06</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>53535.45400000001</v>
+      </c>
+      <c r="AF18">
+        <v>2880</v>
+      </c>
+      <c r="AG18">
+        <v>53535.45400000001</v>
+      </c>
+      <c r="AH18">
+        <v>64266.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19">
+        <v>10473.22</v>
+      </c>
+      <c r="E19">
+        <v>1125</v>
+      </c>
+      <c r="F19">
+        <v>2375</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>3530</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>625</v>
+      </c>
+      <c r="L19">
+        <v>625</v>
+      </c>
+      <c r="M19">
+        <v>1250</v>
+      </c>
+      <c r="N19">
+        <v>200</v>
+      </c>
+      <c r="O19">
+        <v>200</v>
+      </c>
+      <c r="P19">
+        <v>400</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>8523.220000000001</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>8523.220000000001</v>
+      </c>
+      <c r="AF19">
+        <v>2405</v>
+      </c>
+      <c r="AG19">
+        <v>8523.220000000001</v>
+      </c>
+      <c r="AH19">
+        <v>10473.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20">
+        <v>65124.58</v>
+      </c>
+      <c r="E20">
+        <v>1350</v>
+      </c>
+      <c r="F20">
+        <v>2850</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>4230</v>
+      </c>
+      <c r="I20">
+        <v>1845.8</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1750</v>
+      </c>
+      <c r="L20">
+        <v>1750</v>
+      </c>
+      <c r="M20">
+        <v>3500</v>
+      </c>
+      <c r="N20">
+        <v>200</v>
+      </c>
+      <c r="O20">
+        <v>200</v>
+      </c>
+      <c r="P20">
+        <v>400</v>
+      </c>
+      <c r="Q20">
+        <v>3826.05</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>7573.316000000001</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>18157.16</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>30422.254</v>
+      </c>
+      <c r="Z20">
+        <v>2500</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>32922.254</v>
+      </c>
+      <c r="AF20">
+        <v>2880</v>
+      </c>
+      <c r="AG20">
+        <v>32922.254</v>
+      </c>
+      <c r="AH20">
+        <v>67624.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21">
+        <v>10411.34</v>
+      </c>
+      <c r="E21">
+        <v>675</v>
+      </c>
+      <c r="F21">
+        <v>1425</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>2130</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>375</v>
+      </c>
+      <c r="L21">
+        <v>375</v>
+      </c>
+      <c r="M21">
+        <v>750</v>
+      </c>
+      <c r="N21">
+        <v>200</v>
+      </c>
+      <c r="O21">
+        <v>200</v>
+      </c>
+      <c r="P21">
+        <v>400</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>9161.340000000002</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>9161.340000000002</v>
+      </c>
+      <c r="AF21">
+        <v>1455</v>
+      </c>
+      <c r="AG21">
+        <v>9161.340000000002</v>
+      </c>
+      <c r="AH21">
+        <v>10411.34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22">
+        <v>230000</v>
+      </c>
+      <c r="E22">
+        <v>1350</v>
+      </c>
+      <c r="F22">
+        <v>2850</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>4230</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>2500</v>
+      </c>
+      <c r="L22">
+        <v>2500</v>
+      </c>
+      <c r="M22">
+        <v>5000</v>
+      </c>
+      <c r="N22">
+        <v>200</v>
+      </c>
+      <c r="O22">
+        <v>200</v>
+      </c>
+      <c r="P22">
+        <v>400</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>51326.7</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>174623.3</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>174623.3</v>
+      </c>
+      <c r="AF22">
+        <v>2880</v>
+      </c>
+      <c r="AG22">
+        <v>174623.3</v>
+      </c>
+      <c r="AH22">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23">
+        <v>30222.85</v>
+      </c>
+      <c r="E23">
+        <v>1350</v>
+      </c>
+      <c r="F23">
+        <v>2850</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>4230</v>
+      </c>
+      <c r="I23">
+        <v>1523.08</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>750</v>
+      </c>
+      <c r="L23">
+        <v>750</v>
+      </c>
+      <c r="M23">
+        <v>1500</v>
+      </c>
+      <c r="N23">
+        <v>200</v>
+      </c>
+      <c r="O23">
+        <v>200</v>
+      </c>
+      <c r="P23">
+        <v>400</v>
+      </c>
+      <c r="Q23">
+        <v>1509.57</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1063.4775</v>
+      </c>
+      <c r="T23">
+        <v>2000</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>21826.7225</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>21826.7225</v>
+      </c>
+      <c r="AF23">
+        <v>2880</v>
+      </c>
+      <c r="AG23">
+        <v>21826.7225</v>
+      </c>
+      <c r="AH23">
+        <v>30222.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24">
+        <v>11453.78</v>
+      </c>
+      <c r="E24">
+        <v>742.5</v>
+      </c>
+      <c r="F24">
+        <v>1567.5</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>2340</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>412.5</v>
+      </c>
+      <c r="L24">
+        <v>412.5</v>
+      </c>
+      <c r="M24">
+        <v>825</v>
+      </c>
+      <c r="N24">
+        <v>200</v>
+      </c>
+      <c r="O24">
+        <v>200</v>
+      </c>
+      <c r="P24">
+        <v>400</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>10098.78</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>10098.78</v>
+      </c>
+      <c r="AF24">
+        <v>1597.5</v>
+      </c>
+      <c r="AG24">
+        <v>10098.78</v>
+      </c>
+      <c r="AH24">
+        <v>11453.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25">
+        <v>20166.09</v>
+      </c>
+      <c r="E25">
+        <v>990</v>
+      </c>
+      <c r="F25">
+        <v>2090</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>3110</v>
+      </c>
+      <c r="I25">
+        <v>1845.8</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>547.25</v>
+      </c>
+      <c r="L25">
+        <v>547.25</v>
+      </c>
+      <c r="M25">
+        <v>1094.5</v>
+      </c>
+      <c r="N25">
+        <v>200</v>
+      </c>
+      <c r="O25">
+        <v>200</v>
+      </c>
+      <c r="P25">
+        <v>400</v>
+      </c>
+      <c r="Q25">
+        <v>1611.71</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>2000</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>12971.33</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>12971.33</v>
+      </c>
+      <c r="AF25">
+        <v>2120</v>
+      </c>
+      <c r="AG25">
+        <v>12971.33</v>
+      </c>
+      <c r="AH25">
+        <v>20166.09</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26">
+        <v>22729.76</v>
+      </c>
+      <c r="E26">
+        <v>990</v>
+      </c>
+      <c r="F26">
+        <v>2090</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>3110</v>
+      </c>
+      <c r="I26">
+        <v>1845.8</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>543.75</v>
+      </c>
+      <c r="L26">
+        <v>543.75</v>
+      </c>
+      <c r="M26">
+        <v>1087.5</v>
+      </c>
+      <c r="N26">
+        <v>200</v>
+      </c>
+      <c r="O26">
+        <v>200</v>
+      </c>
+      <c r="P26">
+        <v>400</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>24.45149999999976</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>19125.7585</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>1000</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>20125.7585</v>
+      </c>
+      <c r="AF26">
+        <v>2120</v>
+      </c>
+      <c r="AG26">
+        <v>20125.7585</v>
+      </c>
+      <c r="AH26">
+        <v>23729.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27">
+        <v>21502.45</v>
+      </c>
+      <c r="E27">
+        <v>1035</v>
+      </c>
+      <c r="F27">
+        <v>2185</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>3250</v>
+      </c>
+      <c r="I27">
+        <v>922.9</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>578.5</v>
+      </c>
+      <c r="L27">
+        <v>578.5</v>
+      </c>
+      <c r="M27">
+        <v>1157</v>
+      </c>
+      <c r="N27">
+        <v>200</v>
+      </c>
+      <c r="O27">
+        <v>200</v>
+      </c>
+      <c r="P27">
+        <v>400</v>
+      </c>
+      <c r="Q27">
+        <v>309.3</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>18456.75</v>
+      </c>
+      <c r="Z27">
+        <v>1000</v>
+      </c>
+      <c r="AA27">
+        <v>11.5</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>1000</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>20468.25</v>
+      </c>
+      <c r="AF27">
+        <v>2215</v>
+      </c>
+      <c r="AG27">
+        <v>20468.25</v>
+      </c>
+      <c r="AH27">
+        <v>23513.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
-      <c r="B16">
-        <v>64190.59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28">
+        <v>22822</v>
+      </c>
+      <c r="E28">
+        <v>1035</v>
+      </c>
+      <c r="F28">
+        <v>2185</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>3250</v>
+      </c>
+      <c r="I28">
+        <v>1845.8</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>570.5500000000001</v>
+      </c>
+      <c r="L28">
+        <v>570.5500000000001</v>
+      </c>
+      <c r="M28">
+        <v>1141.1</v>
+      </c>
+      <c r="N28">
+        <v>200</v>
+      </c>
+      <c r="O28">
+        <v>200</v>
+      </c>
+      <c r="P28">
+        <v>400</v>
+      </c>
+      <c r="Q28">
+        <v>1293.73</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>27.51750000000011</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>17849.4025</v>
+      </c>
+      <c r="Z28">
+        <v>6300</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>24149.4025</v>
+      </c>
+      <c r="AF28">
+        <v>2215</v>
+      </c>
+      <c r="AG28">
+        <v>24149.4025</v>
+      </c>
+      <c r="AH28">
+        <v>29122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29">
+        <v>15347.42</v>
+      </c>
+      <c r="E29">
+        <v>675</v>
+      </c>
+      <c r="F29">
+        <v>1425</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+      <c r="H29">
+        <v>2130</v>
+      </c>
+      <c r="I29">
+        <v>1845.8</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>375</v>
+      </c>
+      <c r="L29">
+        <v>375</v>
+      </c>
+      <c r="M29">
+        <v>750</v>
+      </c>
+      <c r="N29">
+        <v>200</v>
+      </c>
+      <c r="O29">
+        <v>200</v>
+      </c>
+      <c r="P29">
+        <v>400</v>
+      </c>
+      <c r="Q29">
+        <v>318.44</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>11933.18</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>11933.18</v>
+      </c>
+      <c r="AF29">
+        <v>1455</v>
+      </c>
+      <c r="AG29">
+        <v>11933.18</v>
+      </c>
+      <c r="AH29">
+        <v>15347.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30">
+        <v>25260</v>
+      </c>
+      <c r="E30">
+        <v>1147.5</v>
+      </c>
+      <c r="F30">
+        <v>2422.5</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30">
+        <v>3600</v>
+      </c>
+      <c r="I30">
+        <v>1845.8</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>631.5</v>
+      </c>
+      <c r="L30">
+        <v>631.5</v>
+      </c>
+      <c r="M30">
+        <v>1263</v>
+      </c>
+      <c r="N30">
+        <v>200</v>
+      </c>
+      <c r="O30">
+        <v>200</v>
+      </c>
+      <c r="P30">
+        <v>400</v>
+      </c>
+      <c r="Q30">
+        <v>960.85</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>367.2</v>
+      </c>
+      <c r="T30">
+        <v>3000</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>17107.15</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>17107.15</v>
+      </c>
+      <c r="AF30">
+        <v>2452.5</v>
+      </c>
+      <c r="AG30">
+        <v>17107.15</v>
+      </c>
+      <c r="AH30">
+        <v>25260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31">
+        <v>16553.56</v>
+      </c>
+      <c r="E31">
+        <v>765</v>
+      </c>
+      <c r="F31">
+        <v>1615</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>2410</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>430.3375</v>
+      </c>
+      <c r="L31">
+        <v>430.3375</v>
+      </c>
+      <c r="M31">
+        <v>860.6750000000001</v>
+      </c>
+      <c r="N31">
+        <v>200</v>
+      </c>
+      <c r="O31">
+        <v>200</v>
+      </c>
+      <c r="P31">
+        <v>400</v>
+      </c>
+      <c r="Q31">
+        <v>950</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>1430.49</v>
+      </c>
+      <c r="Y31">
+        <v>15638.7125</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>15638.7125</v>
+      </c>
+      <c r="AF31">
+        <v>1645</v>
+      </c>
+      <c r="AG31">
+        <v>15638.7125</v>
+      </c>
+      <c r="AH31">
+        <v>16553.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32">
+        <v>19387.96</v>
+      </c>
+      <c r="E32">
+        <v>855</v>
+      </c>
+      <c r="F32">
+        <v>1805</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>2690</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>479.19</v>
+      </c>
+      <c r="L32">
+        <v>479.185</v>
+      </c>
+      <c r="M32">
+        <v>958.375</v>
+      </c>
+      <c r="N32">
+        <v>200</v>
+      </c>
+      <c r="O32">
+        <v>200</v>
+      </c>
+      <c r="P32">
+        <v>400</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>17853.77</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>17853.77</v>
+      </c>
+      <c r="AF32">
+        <v>1835</v>
+      </c>
+      <c r="AG32">
+        <v>17853.77</v>
+      </c>
+      <c r="AH32">
+        <v>19387.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33">
+        <v>19216.82</v>
+      </c>
+      <c r="E33">
+        <v>900</v>
+      </c>
+      <c r="F33">
+        <v>1900</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>2830</v>
+      </c>
+      <c r="I33">
+        <v>1753.51</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>493.75</v>
+      </c>
+      <c r="L33">
+        <v>493.75</v>
+      </c>
+      <c r="M33">
+        <v>987.5</v>
+      </c>
+      <c r="N33">
+        <v>200</v>
+      </c>
+      <c r="O33">
+        <v>200</v>
+      </c>
+      <c r="P33">
+        <v>400</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>15869.56</v>
+      </c>
+      <c r="Z33">
+        <v>5962.3</v>
+      </c>
+      <c r="AA33">
+        <v>71.31999999999999</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>21903.18</v>
+      </c>
+      <c r="AF33">
+        <v>1930</v>
+      </c>
+      <c r="AG33">
+        <v>21903.18</v>
+      </c>
+      <c r="AH33">
+        <v>25250.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34">
+        <v>25189.7</v>
+      </c>
+      <c r="E34">
+        <v>1192.5</v>
+      </c>
+      <c r="F34">
+        <v>2517.5</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>3740</v>
+      </c>
+      <c r="I34">
+        <v>1845.8</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>665.9299999999999</v>
+      </c>
+      <c r="L34">
+        <v>665.9200000000002</v>
+      </c>
+      <c r="M34">
+        <v>1331.85</v>
+      </c>
+      <c r="N34">
+        <v>200</v>
+      </c>
+      <c r="O34">
+        <v>200</v>
+      </c>
+      <c r="P34">
+        <v>400</v>
+      </c>
+      <c r="Q34">
+        <v>2240.83</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>344.7405000000001</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>18699.8995</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>18699.8995</v>
+      </c>
+      <c r="AF34">
+        <v>2547.5</v>
+      </c>
+      <c r="AG34">
+        <v>18699.8995</v>
+      </c>
+      <c r="AH34">
+        <v>25189.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35">
+        <v>22215.57</v>
+      </c>
+      <c r="E35">
+        <v>810</v>
+      </c>
+      <c r="F35">
+        <v>1710</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35">
+        <v>2550</v>
+      </c>
+      <c r="I35">
+        <v>1522.78</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>444.1</v>
+      </c>
+      <c r="L35">
+        <v>444.1</v>
+      </c>
+      <c r="M35">
+        <v>888.2</v>
+      </c>
+      <c r="N35">
+        <v>200</v>
+      </c>
+      <c r="O35">
+        <v>200</v>
+      </c>
+      <c r="P35">
+        <v>400</v>
+      </c>
+      <c r="Q35">
+        <v>1748.92</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>2000</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>15489.77</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>15489.77</v>
+      </c>
+      <c r="AF35">
+        <v>1740</v>
+      </c>
+      <c r="AG35">
+        <v>15489.77</v>
+      </c>
+      <c r="AH35">
+        <v>22215.57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36">
+        <v>15172.51</v>
+      </c>
+      <c r="E36">
+        <v>675</v>
+      </c>
+      <c r="F36">
+        <v>1425</v>
+      </c>
+      <c r="G36">
+        <v>30</v>
+      </c>
+      <c r="H36">
+        <v>2130</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>375</v>
+      </c>
+      <c r="L36">
+        <v>375</v>
+      </c>
+      <c r="M36">
+        <v>750</v>
+      </c>
+      <c r="N36">
+        <v>200</v>
+      </c>
+      <c r="O36">
+        <v>200</v>
+      </c>
+      <c r="P36">
+        <v>400</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>13922.51</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>13922.51</v>
+      </c>
+      <c r="AF36">
+        <v>1455</v>
+      </c>
+      <c r="AG36">
+        <v>13922.51</v>
+      </c>
+      <c r="AH36">
+        <v>15172.51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37">
+        <v>18981.71</v>
+      </c>
+      <c r="E37">
+        <v>855</v>
+      </c>
+      <c r="F37">
+        <v>1805</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>2690</v>
+      </c>
+      <c r="I37">
+        <v>1661.22</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>478.32</v>
+      </c>
+      <c r="L37">
+        <v>478.3300000000001</v>
+      </c>
+      <c r="M37">
+        <v>956.6500000000001</v>
+      </c>
+      <c r="N37">
+        <v>200</v>
+      </c>
+      <c r="O37">
+        <v>200</v>
+      </c>
+      <c r="P37">
+        <v>400</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>3000</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>12787.17</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>12787.17</v>
+      </c>
+      <c r="AF37">
+        <v>1835</v>
+      </c>
+      <c r="AG37">
+        <v>12787.17</v>
+      </c>
+      <c r="AH37">
+        <v>18981.71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="B18">
-        <v>47720.17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B38">
+        <v>110191.61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B39">
+        <v>170661.61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" t="s">
         <v>46</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" t="s">
         <v>47</v>
       </c>
-      <c r="B21">
-        <v>17734.86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="A43" t="s">
         <v>49</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B43">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" t="s">
         <v>50</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="B44">
+        <v>206781.99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="A45" t="s">
         <v>51</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B45">
+        <v>88509.14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="A46" t="s">
         <v>52</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B46">
+        <v>260222.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" t="s">
         <v>53</v>
       </c>
-      <c r="B27">
-        <v>5512.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B47">
+        <v>55349.62999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" t="s">
         <v>54</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29">
-        <v>6645</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31">
-        <v>5695</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44">
-        <v>1477.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47">
-        <v>444.65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>74</v>
-      </c>
       <c r="B48">
-        <v>0</v>
+        <v>23513.95</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>69729.42</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>142751.45</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>9650</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>16275</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2200,162 +4792,442 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>600</v>
+        <v>7452.5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>200</v>
+        <v>5837.5</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>6122.5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>12987.5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <v>2500.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <v>4485.495000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70">
+        <v>4027.4375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73">
+        <v>1503.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74">
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
+        <v>1577.05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
+        <v>3366.6225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
         <v>90</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
+      <c r="B84">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>91</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="B85">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
         <v>92</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="B86">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
         <v>93</v>
       </c>
-      <c r="D67">
-        <v>2201.031</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
         <v>94</v>
       </c>
-      <c r="D68">
-        <v>28750</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="B88">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
         <v>95</v>
       </c>
-      <c r="D69">
-        <v>2053.45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+      <c r="B89">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>96</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
         <v>97</v>
       </c>
-      <c r="D71">
-        <v>10174.7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
+      <c r="B91">
+        <v>1430.49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
         <v>98</v>
       </c>
-      <c r="D72">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
         <v>99</v>
       </c>
-      <c r="D73">
-        <v>941.46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
+      <c r="D93">
+        <v>142151.818</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94">
+        <v>111380</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95">
+        <v>31655.75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97">
+        <v>53077.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99">
+        <v>27670.28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="D103">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="D105">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108">
+        <v>18157.16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
         <v>32</v>
       </c>
-      <c r="D74">
-        <v>181383.459</v>
+      <c r="D109">
+        <v>1049708.287</v>
       </c>
     </row>
   </sheetData>
